--- a/inst/ennustekuvat/Ennuste kokoomataulukko_kevät_2022.xlsx
+++ b/inst/ennustekuvat/Ennuste kokoomataulukko_kevät_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry.sharepoint.com/sites/Ennuste/Shared Documents/ME/Taulut ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{0F480267-2A86-4AFF-A052-52FF3E50F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36CBA343-DA13-4E5F-93D8-A2D2A079EF42}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{0F480267-2A86-4AFF-A052-52FF3E50F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D715B7D-93D5-4219-A727-8BBAF5228B74}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="4140" windowWidth="21600" windowHeight="11385" xr2:uid="{4949303D-B93D-4224-9334-DBEC70CC5E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4949303D-B93D-4224-9334-DBEC70CC5E62}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191028" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -46,20 +47,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4510EC3E-72C7-454C-8AA6-7E4A2A377921}</author>
     <author>tc={21C51847-67B6-4CE8-9882-8DF731387420}</author>
     <author>tc={0F99DAA3-611F-4292-82B3-F80250A5F74D}</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{4510EC3E-72C7-454C-8AA6-7E4A2A377921}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    datatiedot puuttuvat</t>
-      </text>
-    </comment>
-    <comment ref="D33" authorId="1" shapeId="0" xr:uid="{21C51847-67B6-4CE8-9882-8DF731387420}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{21C51847-67B6-4CE8-9882-8DF731387420}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,7 +59,7 @@
     summattu yhteen Ulkomaankauppa sitc_v luvut yhteen</t>
       </text>
     </comment>
-    <comment ref="E33" authorId="2" shapeId="0" xr:uid="{0F99DAA3-611F-4292-82B3-F80250A5F74D}">
+    <comment ref="E32" authorId="1" shapeId="0" xr:uid="{0F99DAA3-611F-4292-82B3-F80250A5F74D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -109,7 +101,7 @@
     <t>Maidon tuotanto</t>
   </si>
   <si>
-    <t>Vastaanotettu maitomäärä</t>
+    <t>Maito yhteensä</t>
   </si>
   <si>
     <t>luke/02_Maatalous/06_Talous/02_Maataloustuotteiden_tuottajahinnat/02_Tuottajahinnat_Maito_v.px</t>
@@ -124,45 +116,18 @@
     <t>Suomi</t>
   </si>
   <si>
-    <t>tidy/dg_agri</t>
-  </si>
-  <si>
-    <t>vuosikeskiarvo</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
     <t>luke/02_Maatalous/04_Tuotanto/06_Lihantuotanto/02_Kuukausitilastot/02_Lihantuotanto_teurastamoissa_kk.px</t>
   </si>
   <si>
     <t>Vuosisumma</t>
   </si>
   <si>
-    <t xml:space="preserve">Sianlihan tuotanto </t>
-  </si>
-  <si>
     <t>luke/02_Maatalous/08_Muut/02_Ravintotase/01_Elintarvikkeiden_kulutus.px</t>
   </si>
   <si>
     <t>Vuosittain</t>
   </si>
   <si>
-    <t xml:space="preserve">Sianlihan kokonaiskulutus </t>
-  </si>
-  <si>
-    <t>Siipikarjanlihan tuotanto</t>
-  </si>
-  <si>
-    <t>Siipikarjanlihan kokonaiskulutus</t>
-  </si>
-  <si>
-    <t>Naudanlihan tuotanto</t>
-  </si>
-  <si>
-    <t>Naudanlihan kokonaiskulutus</t>
-  </si>
-  <si>
     <t>luke/02_Maatalous/06_Talous/02_Maataloustuotteiden_tuottajahinnat/04_Tuottajahinnat_Liha_v.px</t>
   </si>
   <si>
@@ -178,9 +143,6 @@
     <t>Siipikarjanliha</t>
   </si>
   <si>
-    <t>Maailman vehnäntuotanto</t>
-  </si>
-  <si>
     <t>StatFin/maa/satot/statfin_satot_pxt_001.px</t>
   </si>
   <si>
@@ -223,9 +185,6 @@
     <t>Rehut</t>
   </si>
   <si>
-    <t>Tuotantotarvikkeet yhteensä hinta</t>
-  </si>
-  <si>
     <t>Vuosimuutos</t>
   </si>
   <si>
@@ -265,29 +224,47 @@
     <t>Elintarvikkeet</t>
   </si>
   <si>
-    <t>Elintarvikkeiden ja alkoholittomien juomien hinta Suomi</t>
-  </si>
-  <si>
-    <t>Elintarvikkeet ja alkoholittomat juomat</t>
-  </si>
-  <si>
     <t>Elintarvikkeiden hintojen muutos</t>
   </si>
   <si>
-    <t>Maitotuotteet, juustot ja kananmunat</t>
-  </si>
-  <si>
     <t>Liha</t>
   </si>
   <si>
     <t>Viljatuotteet ja leipä</t>
+  </si>
+  <si>
+    <t>Maitotuotteet, juusto ja kananmunat</t>
+  </si>
+  <si>
+    <t>Kuluttajahinnat</t>
+  </si>
+  <si>
+    <t>Maailman viljantuotanto</t>
+  </si>
+  <si>
+    <t>Tuotanto</t>
+  </si>
+  <si>
+    <t>Kokonaiskulutus</t>
+  </si>
+  <si>
+    <t>Sianlihan tuotanto kulutus</t>
+  </si>
+  <si>
+    <t>Siipikarjanlihan tuotanto kulutus</t>
+  </si>
+  <si>
+    <t>Naudanlihan tuotanto kulutus</t>
+  </si>
+  <si>
+    <t>Tuotantotarvikkeet yhteensä</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,19 +279,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -335,19 +313,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,39 +381,7 @@
             <v>45.494</v>
           </cell>
           <cell r="M12">
-            <v>45.494</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>37.008333333333297</v>
-          </cell>
-          <cell r="E31">
-            <v>30.342500000000001</v>
-          </cell>
-          <cell r="F31">
-            <v>28.6041666666667</v>
-          </cell>
-          <cell r="G31">
-            <v>35.1933333333333</v>
-          </cell>
-          <cell r="H31">
-            <v>34.307499999999997</v>
-          </cell>
-          <cell r="I31">
-            <v>34.780105666666699</v>
-          </cell>
-          <cell r="J31">
-            <v>34.136991666666702</v>
-          </cell>
-          <cell r="K31">
-            <v>36.822174250000003</v>
-          </cell>
-          <cell r="L31">
-            <v>36.822174250000003</v>
-          </cell>
-          <cell r="M31">
-            <v>36.822174250000003</v>
+            <v>45.94894</v>
           </cell>
         </row>
       </sheetData>
@@ -464,10 +412,10 @@
             <v>2205728462</v>
           </cell>
           <cell r="K7">
-            <v>2161613892.7599998</v>
+            <v>2139556608.1399999</v>
           </cell>
           <cell r="L7">
-            <v>2161613892.7599998</v>
+            <v>2118161042.0585999</v>
           </cell>
         </row>
       </sheetData>
@@ -484,6 +432,7 @@
       <sheetName val="Hinnat Suomi kk"/>
       <sheetName val="Hinnat Suomi"/>
       <sheetName val="Kulutus ja tuotanto Suomi"/>
+      <sheetName val="Taul2"/>
       <sheetName val="Uusi Kulutus ja tuotanto Suomi"/>
       <sheetName val="Hinnat EU"/>
       <sheetName val="Hinnat EU uusi"/>
@@ -494,135 +443,109 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="6">
-          <cell r="D6">
-            <v>303.06</v>
-          </cell>
-          <cell r="E6">
-            <v>289.85000000000002</v>
-          </cell>
-          <cell r="F6">
-            <v>284.51</v>
-          </cell>
-          <cell r="G6">
-            <v>298.16000000000003</v>
-          </cell>
-          <cell r="H6">
-            <v>311.89999999999998</v>
-          </cell>
-          <cell r="I6">
-            <v>316.47000000000003</v>
-          </cell>
-          <cell r="J6">
-            <v>315.63</v>
-          </cell>
-          <cell r="K6">
-            <v>320.64999999999998</v>
-          </cell>
-          <cell r="L6">
-            <v>346.30200000000002</v>
-          </cell>
-          <cell r="M6">
-            <v>346.30200000000002</v>
+        <row r="15">
+          <cell r="D15">
+            <v>-2.3992786061640459E-2</v>
+          </cell>
+          <cell r="E15">
+            <v>-4.3588728304626123E-2</v>
+          </cell>
+          <cell r="F15">
+            <v>-1.8423322408142262E-2</v>
+          </cell>
+          <cell r="G15">
+            <v>4.7977223999156493E-2</v>
+          </cell>
+          <cell r="H15">
+            <v>4.6082640193184643E-2</v>
+          </cell>
+          <cell r="I15">
+            <v>1.465213209361993E-2</v>
+          </cell>
+          <cell r="J15">
+            <v>-2.6542800265428879E-3</v>
+          </cell>
+          <cell r="K15">
+            <v>1.5904698539429107E-2</v>
+          </cell>
+          <cell r="L15">
+            <v>0.15</v>
+          </cell>
+          <cell r="M15">
+            <v>0.03</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8">
-            <v>158.38999999999999</v>
-          </cell>
-          <cell r="E8">
-            <v>145.63</v>
-          </cell>
-          <cell r="F8">
-            <v>139.57</v>
-          </cell>
-          <cell r="G8">
-            <v>147.66</v>
-          </cell>
-          <cell r="H8">
-            <v>152.36000000000001</v>
-          </cell>
-          <cell r="I8">
-            <v>158.35</v>
-          </cell>
-          <cell r="J8">
-            <v>161.77000000000001</v>
-          </cell>
-          <cell r="K8">
-            <v>155.16999999999999</v>
-          </cell>
-          <cell r="L8">
-            <v>173.79040000000001</v>
-          </cell>
-          <cell r="M8">
-            <v>173.79040000000001</v>
+        <row r="17">
+          <cell r="D17">
+            <v>-9.0496698248636376E-2</v>
+          </cell>
+          <cell r="E17">
+            <v>-8.0560641454637261E-2</v>
+          </cell>
+          <cell r="F17">
+            <v>-4.1612305156904505E-2</v>
+          </cell>
+          <cell r="G17">
+            <v>5.7963745790642784E-2</v>
+          </cell>
+          <cell r="H17">
+            <v>3.1829879452797138E-2</v>
+          </cell>
+          <cell r="I17">
+            <v>3.9314780782357506E-2</v>
+          </cell>
+          <cell r="J17">
+            <v>2.1597726555099506E-2</v>
+          </cell>
+          <cell r="K17">
+            <v>-4.0798664770971271E-2</v>
+          </cell>
+          <cell r="L17">
+            <v>0.13</v>
+          </cell>
+          <cell r="M17">
+            <v>0.02</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="D11">
-            <v>148.09</v>
-          </cell>
-          <cell r="E11">
-            <v>138.83000000000001</v>
-          </cell>
-          <cell r="F11">
-            <v>135.03</v>
-          </cell>
-          <cell r="G11">
-            <v>133.25</v>
-          </cell>
-          <cell r="H11">
-            <v>135.52000000000001</v>
-          </cell>
-          <cell r="I11">
-            <v>140.07</v>
-          </cell>
-          <cell r="J11">
-            <v>135.02000000000001</v>
-          </cell>
-          <cell r="K11">
-            <v>135.61000000000001</v>
-          </cell>
-          <cell r="L11">
-            <v>154.59540000000004</v>
-          </cell>
-          <cell r="M11">
-            <v>154.59540000000004</v>
+        <row r="20">
+          <cell r="D20">
+            <v>-3.9810672372430744E-2</v>
+          </cell>
+          <cell r="E20">
+            <v>-6.2529542845566777E-2</v>
+          </cell>
+          <cell r="F20">
+            <v>-2.7371605560757795E-2</v>
+          </cell>
+          <cell r="G20">
+            <v>-1.3182255795008535E-2</v>
+          </cell>
+          <cell r="H20">
+            <v>1.703564727954987E-2</v>
+          </cell>
+          <cell r="I20">
+            <v>3.3574380165289019E-2</v>
+          </cell>
+          <cell r="J20">
+            <v>-3.6053401870493218E-2</v>
+          </cell>
+          <cell r="K20">
+            <v>4.3697230039994039E-3</v>
+          </cell>
+          <cell r="L20">
+            <v>0.17</v>
+          </cell>
+          <cell r="M20">
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="10">
-          <cell r="C10">
-            <v>82315768.700000003</v>
-          </cell>
-          <cell r="D10">
-            <v>85768467.600000009</v>
-          </cell>
-          <cell r="E10">
-            <v>86034058.799999997</v>
-          </cell>
-          <cell r="F10">
-            <v>85393390.5</v>
-          </cell>
-          <cell r="G10">
-            <v>86477330</v>
-          </cell>
-          <cell r="H10">
-            <v>87179708.900000006</v>
-          </cell>
-          <cell r="I10">
-            <v>86525182.200000003</v>
-          </cell>
-          <cell r="J10">
-            <v>85672404.399999991</v>
-          </cell>
-          <cell r="K10">
-            <v>84815680.355999991</v>
-          </cell>
-          <cell r="L10">
-            <v>84815680.355999991</v>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="11">
+          <cell r="C11">
+            <v>94774435.699999973</v>
           </cell>
         </row>
         <row r="25">
@@ -654,7 +577,39 @@
             <v>168989344.99200001</v>
           </cell>
           <cell r="L25">
-            <v>168144398.26704001</v>
+            <v>165609558.09216002</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>186580274.99999946</v>
+          </cell>
+          <cell r="D26">
+            <v>188593415.3999998</v>
+          </cell>
+          <cell r="E26">
+            <v>182142622.59999973</v>
+          </cell>
+          <cell r="F26">
+            <v>178187325.1999999</v>
+          </cell>
+          <cell r="G26">
+            <v>178080779.9999997</v>
+          </cell>
+          <cell r="H26">
+            <v>166429639.5999999</v>
+          </cell>
+          <cell r="I26">
+            <v>155950666.89999989</v>
+          </cell>
+          <cell r="J26">
+            <v>160894811.69999951</v>
+          </cell>
+          <cell r="K26">
+            <v>160090337.64149952</v>
+          </cell>
+          <cell r="L26">
+            <v>159289885.95329204</v>
           </cell>
         </row>
         <row r="40">
@@ -683,120 +638,108 @@
             <v>147161856.5</v>
           </cell>
           <cell r="K40">
-            <v>147897665.7825</v>
+            <v>148633475.065</v>
           </cell>
           <cell r="L40">
-            <v>147897665.7825</v>
+            <v>150119809.81564999</v>
           </cell>
         </row>
-        <row r="52">
-          <cell r="C52">
-            <v>18.7</v>
-          </cell>
-          <cell r="D52">
-            <v>19.2</v>
-          </cell>
-          <cell r="E52">
-            <v>19.2</v>
-          </cell>
-          <cell r="F52">
-            <v>19.399999999999999</v>
-          </cell>
-          <cell r="G52">
-            <v>19.3</v>
-          </cell>
-          <cell r="H52">
-            <v>18.8</v>
-          </cell>
-          <cell r="I52">
-            <v>18.600000000000001</v>
-          </cell>
-          <cell r="J52" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K52" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L52" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>34.6</v>
-          </cell>
-          <cell r="D53">
-            <v>34.9</v>
-          </cell>
-          <cell r="E53">
-            <v>34.700000000000003</v>
-          </cell>
-          <cell r="F53">
-            <v>33.4</v>
-          </cell>
-          <cell r="G53">
-            <v>32.5</v>
-          </cell>
-          <cell r="H53">
-            <v>30.8</v>
-          </cell>
-          <cell r="I53">
-            <v>29.7</v>
-          </cell>
-          <cell r="J53" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K53" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L53" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>20.100000000000001</v>
-          </cell>
-          <cell r="D55">
-            <v>21.6</v>
-          </cell>
-          <cell r="E55">
-            <v>23.5</v>
-          </cell>
-          <cell r="F55">
-            <v>24.9</v>
-          </cell>
-          <cell r="G55">
-            <v>25.6</v>
-          </cell>
-          <cell r="H55">
-            <v>26.4</v>
-          </cell>
-          <cell r="I55">
-            <v>27.5</v>
-          </cell>
-          <cell r="J55" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K55" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L55" t="e">
-            <v>#N/A</v>
+        <row r="41">
+          <cell r="C41">
+            <v>108830504.5</v>
+          </cell>
+          <cell r="D41">
+            <v>111187695.69999999</v>
+          </cell>
+          <cell r="E41">
+            <v>119531284.19999966</v>
+          </cell>
+          <cell r="F41">
+            <v>127400676.29999979</v>
+          </cell>
+          <cell r="G41">
+            <v>132285979.99999967</v>
+          </cell>
+          <cell r="H41">
+            <v>134794374.19999981</v>
+          </cell>
+          <cell r="I41">
+            <v>140812090.9999997</v>
+          </cell>
+          <cell r="J41">
+            <v>143328112.49999958</v>
+          </cell>
+          <cell r="K41">
+            <v>144761393.62499958</v>
+          </cell>
+          <cell r="L41">
+            <v>146209007.56124958</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="viljan_tuotanto_uusi"/>
+      <sheetName val="Viljan maailmanmarkkinat uusi"/>
+      <sheetName val="Taul1"/>
+      <sheetName val="Varastot"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4">
+            <v>716508</v>
+          </cell>
+          <cell r="C4">
+            <v>730255</v>
+          </cell>
+          <cell r="D4">
+            <v>737958</v>
+          </cell>
+          <cell r="E4">
+            <v>756144</v>
+          </cell>
+          <cell r="F4">
+            <v>761563</v>
+          </cell>
+          <cell r="G4">
+            <v>731508</v>
+          </cell>
+          <cell r="H4">
+            <v>762372</v>
+          </cell>
+          <cell r="I4">
+            <v>776004</v>
+          </cell>
+          <cell r="J4">
+            <v>778522</v>
+          </cell>
+          <cell r="K4">
+            <v>786307.22</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -831,10 +774,10 @@
             <v>677.7</v>
           </cell>
           <cell r="K2">
-            <v>840.34800000000007</v>
+            <v>806.46299999999997</v>
           </cell>
           <cell r="L2">
-            <v>882.36540000000014</v>
+            <v>822.59226000000001</v>
           </cell>
         </row>
         <row r="3">
@@ -863,10 +806,10 @@
             <v>66.8</v>
           </cell>
           <cell r="K3">
-            <v>80.16</v>
+            <v>76.819999999999993</v>
           </cell>
           <cell r="L3">
-            <v>81.763199999999998</v>
+            <v>78.356399999999994</v>
           </cell>
         </row>
         <row r="4">
@@ -895,10 +838,10 @@
             <v>1032.3</v>
           </cell>
           <cell r="K4">
-            <v>1321.3440000000001</v>
+            <v>1228.4369999999999</v>
           </cell>
           <cell r="L4">
-            <v>1387.4112</v>
+            <v>1265.2901099999999</v>
           </cell>
         </row>
         <row r="5">
@@ -927,10 +870,10 @@
             <v>790.2</v>
           </cell>
           <cell r="K5">
-            <v>1011.4560000000001</v>
+            <v>948.24</v>
           </cell>
           <cell r="L5">
-            <v>1112.6016000000002</v>
+            <v>976.68720000000008</v>
           </cell>
         </row>
       </sheetData>
@@ -961,10 +904,10 @@
             <v>208.51</v>
           </cell>
           <cell r="L5">
-            <v>280</v>
+            <v>245</v>
           </cell>
           <cell r="M5">
-            <v>210</v>
+            <v>220</v>
           </cell>
         </row>
         <row r="8">
@@ -993,7 +936,7 @@
             <v>166.78</v>
           </cell>
           <cell r="L8">
-            <v>190</v>
+            <v>180</v>
           </cell>
           <cell r="M8">
             <v>170</v>
@@ -1025,7 +968,7 @@
             <v>193.65</v>
           </cell>
           <cell r="L9">
-            <v>270</v>
+            <v>220</v>
           </cell>
           <cell r="M9">
             <v>190</v>
@@ -1057,7 +1000,7 @@
             <v>173.28</v>
           </cell>
           <cell r="L12">
-            <v>280</v>
+            <v>210</v>
           </cell>
           <cell r="M12">
             <v>175</v>
@@ -1069,24 +1012,145 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Tuotantopanokset"/>
       <sheetName val="Uusi Tuotantopanokset"/>
       <sheetName val="Uusi Tuotantopanokset kk"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="52">
+          <cell r="C52">
+            <v>-5.018248175182205E-2</v>
+          </cell>
+          <cell r="D52">
+            <v>-0.11335254562920238</v>
+          </cell>
+          <cell r="E52">
+            <v>-6.725560463371949E-2</v>
+          </cell>
+          <cell r="F52">
+            <v>9.7659042172980381E-2</v>
+          </cell>
+          <cell r="G52">
+            <v>0.10394790394790721</v>
+          </cell>
+          <cell r="H52">
+            <v>2.7134640908414553E-2</v>
+          </cell>
+          <cell r="I52">
+            <v>-0.1327351040918856</v>
+          </cell>
+          <cell r="J52">
+            <v>0.1923681814419369</v>
+          </cell>
+          <cell r="K52">
+            <v>0.3</v>
+          </cell>
+          <cell r="L52">
+            <v>-0.08</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>-9.1705891900600855E-3</v>
+          </cell>
+          <cell r="D53">
+            <v>-1.7200425915311235E-2</v>
+          </cell>
+          <cell r="E53">
+            <v>-0.13759479956663112</v>
+          </cell>
+          <cell r="F53">
+            <v>1.6138384228836733E-2</v>
+          </cell>
+          <cell r="G53">
+            <v>2.0827389443651922E-2</v>
+          </cell>
+          <cell r="H53">
+            <v>2.1706726290292799E-2</v>
+          </cell>
+          <cell r="I53">
+            <v>-8.2611470775964202E-2</v>
+          </cell>
+          <cell r="J53">
+            <v>0.42600139151177352</v>
+          </cell>
+          <cell r="K53">
+            <v>0.65</v>
+          </cell>
+          <cell r="L53">
+            <v>-0.15</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>-8.4998885504120936E-2</v>
+          </cell>
+          <cell r="D54">
+            <v>-2.5578562728379994E-2</v>
+          </cell>
+          <cell r="E54">
+            <v>-2.8750000000000053E-2</v>
+          </cell>
+          <cell r="F54">
+            <v>-4.9764049764047247E-3</v>
+          </cell>
+          <cell r="G54">
+            <v>7.3639734414068903E-2</v>
+          </cell>
+          <cell r="H54">
+            <v>2.5459802425511269E-2</v>
+          </cell>
+          <cell r="I54">
+            <v>-7.1036967418546149E-2</v>
+          </cell>
+          <cell r="J54">
+            <v>0.12241800859961516</v>
+          </cell>
+          <cell r="K54">
+            <v>0.4</v>
+          </cell>
+          <cell r="L54">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>-1.6057451787296118E-2</v>
+          </cell>
+          <cell r="D57">
+            <v>-1.5827456125970141E-2</v>
+          </cell>
+          <cell r="E57">
+            <v>-2.5747854345468335E-2</v>
+          </cell>
+          <cell r="F57">
+            <v>1.5566199110503387E-2</v>
+          </cell>
+          <cell r="G57">
+            <v>3.7308404918312332E-2</v>
+          </cell>
+          <cell r="H57">
+            <v>2.0378338881214431E-2</v>
+          </cell>
+          <cell r="I57">
+            <v>-3.5486950986626353E-2</v>
+          </cell>
+          <cell r="J57">
+            <v>0.10493317934334234</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1124,7 +1188,7 @@
             <v>4066</v>
           </cell>
           <cell r="L18">
-            <v>4448.7121998990797</v>
+            <v>4857.9327008182654</v>
           </cell>
         </row>
         <row r="32">
@@ -1156,7 +1220,7 @@
             <v>5362.9699999999993</v>
           </cell>
           <cell r="L32">
-            <v>6134.3557635274974</v>
+            <v>6149.5887748384202</v>
           </cell>
         </row>
         <row r="35">
@@ -1188,7 +1252,7 @@
             <v>602</v>
           </cell>
           <cell r="L35">
-            <v>249.2182961041608</v>
+            <v>650.99986803375396</v>
           </cell>
         </row>
         <row r="37">
@@ -1220,7 +1284,7 @@
             <v>1898.9700000000003</v>
           </cell>
           <cell r="L37">
-            <v>1934.8618597325785</v>
+            <v>1942.6559420539083</v>
           </cell>
         </row>
       </sheetData>
@@ -1230,7 +1294,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1266,13 +1330,13 @@
             <v>-9.2003664839115373E-3</v>
           </cell>
           <cell r="J32">
-            <v>3.1539899005170735E-2</v>
+            <v>3.1849939020091256E-2</v>
           </cell>
           <cell r="K32">
             <v>0.03</v>
           </cell>
           <cell r="L32">
-            <v>0.03</v>
+            <v>0.01</v>
           </cell>
         </row>
       </sheetData>
@@ -1300,13 +1364,13 @@
             <v>-2.3358484507946642E-2</v>
           </cell>
           <cell r="J27">
-            <v>1.6766663927015424E-2</v>
+            <v>2.0793950850658272E-2</v>
           </cell>
           <cell r="K27">
-            <v>0</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
           <cell r="L27">
-            <v>0.01</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1340,7 +1404,7 @@
             <v>1663629456.96</v>
           </cell>
           <cell r="L43">
-            <v>6654517827.8400002</v>
+            <v>1713538340.6688001</v>
           </cell>
         </row>
         <row r="45">
@@ -1372,7 +1436,7 @@
             <v>4930822107.75</v>
           </cell>
           <cell r="L45">
-            <v>14792466323.25</v>
+            <v>5029438549.9049997</v>
           </cell>
         </row>
       </sheetData>
@@ -1384,7 +1448,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1392,38 +1456,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="60">
-          <cell r="C60">
-            <v>1.5077511148864353E-3</v>
-          </cell>
-          <cell r="D60">
-            <v>-1.8666553578875145E-2</v>
-          </cell>
-          <cell r="E60">
-            <v>-1.1466271013094165E-2</v>
-          </cell>
-          <cell r="F60">
-            <v>-9.1366120218577818E-3</v>
-          </cell>
-          <cell r="G60">
-            <v>1.9316744610135661E-2</v>
-          </cell>
-          <cell r="H60">
-            <v>1.2133628618627768E-2</v>
-          </cell>
-          <cell r="I60">
-            <v>1.6599550978225519E-2</v>
-          </cell>
-          <cell r="J60">
-            <v>5.6788703955583664E-3</v>
-          </cell>
-          <cell r="K60">
-            <v>0.10345128779395298</v>
-          </cell>
-          <cell r="L60">
-            <v>-9.6326987681970878E-3</v>
-          </cell>
-        </row>
         <row r="61">
           <cell r="C61">
             <v>-4.9957128988599164E-3</v>
@@ -1450,10 +1482,10 @@
             <v>2.6969906139033828E-3</v>
           </cell>
           <cell r="K61">
-            <v>9.8933660933660933E-2</v>
+            <v>0.10806306306306307</v>
           </cell>
           <cell r="L61">
-            <v>-2.8034398034398034E-3</v>
+            <v>3.5790335790335782E-2</v>
           </cell>
         </row>
         <row r="62">
@@ -1484,7 +1516,9 @@
           <cell r="K62">
             <v>0.14000000000000001</v>
           </cell>
-          <cell r="L62"/>
+          <cell r="L62">
+            <v>0.03</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="C63">
@@ -1514,7 +1548,9 @@
           <cell r="K63">
             <v>0.12</v>
           </cell>
-          <cell r="L63"/>
+          <cell r="L63">
+            <v>0.04</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="C65">
@@ -1542,9 +1578,11 @@
             <v>-2.9922606191506995E-3</v>
           </cell>
           <cell r="K65">
-            <v>0.08</v>
-          </cell>
-          <cell r="L65"/>
+            <v>0.1</v>
+          </cell>
+          <cell r="L65">
+            <v>0.05</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1855,13 +1893,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D14" dT="2022-03-15T09:02:16.90" personId="{98738F08-A34F-4346-95A4-3221F4A05976}" id="{4510EC3E-72C7-454C-8AA6-7E4A2A377921}">
-    <text>datatiedot puuttuvat</text>
-  </threadedComment>
-  <threadedComment ref="D33" dT="2022-03-15T09:04:54.58" personId="{98738F08-A34F-4346-95A4-3221F4A05976}" id="{21C51847-67B6-4CE8-9882-8DF731387420}">
+  <threadedComment ref="D32" dT="2022-03-15T09:04:54.58" personId="{98738F08-A34F-4346-95A4-3221F4A05976}" id="{21C51847-67B6-4CE8-9882-8DF731387420}">
     <text>summattu yhteen Ulkomaankauppa sitc_v luvut yhteen</text>
   </threadedComment>
-  <threadedComment ref="E33" dT="2022-03-15T09:04:54.58" personId="{98738F08-A34F-4346-95A4-3221F4A05976}" id="{0F99DAA3-611F-4292-82B3-F80250A5F74D}">
+  <threadedComment ref="E32" dT="2022-03-15T09:04:54.58" personId="{98738F08-A34F-4346-95A4-3221F4A05976}" id="{0F99DAA3-611F-4292-82B3-F80250A5F74D}">
     <text>summattu yhteen Ulkomaankauppa sitc_v luvut yhteen</text>
   </threadedComment>
 </ThreadedComments>
@@ -1869,14 +1904,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3031DF4C-9ABC-43AF-91C0-4DF6C616CC14}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
@@ -1888,54 +1923,54 @@
     <col min="15" max="15" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>2014</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>2015</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>2016</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>2017</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>2018</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>2019</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>2020</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>2021</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>2022</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1952,47 +1987,47 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <f>'[1]Maidontuotanto uusi'!C7</f>
-        <v>2288507106</v>
+        <f>'[1]Maidontuotanto uusi'!C7/1000000</f>
+        <v>2288.507106</v>
       </c>
       <c r="G2">
-        <f>'[1]Maidontuotanto uusi'!D7</f>
-        <v>2324583015</v>
+        <f>'[1]Maidontuotanto uusi'!D7/1000000</f>
+        <v>2324.5830150000002</v>
       </c>
       <c r="H2">
-        <f>'[1]Maidontuotanto uusi'!E7</f>
-        <v>2319931197</v>
+        <f>'[1]Maidontuotanto uusi'!E7/1000000</f>
+        <v>2319.9311969999999</v>
       </c>
       <c r="I2">
-        <f>'[1]Maidontuotanto uusi'!F7</f>
-        <v>2296990985</v>
+        <f>'[1]Maidontuotanto uusi'!F7/1000000</f>
+        <v>2296.9909849999999</v>
       </c>
       <c r="J2">
-        <f>'[1]Maidontuotanto uusi'!G7</f>
-        <v>2285135524</v>
+        <f>'[1]Maidontuotanto uusi'!G7/1000000</f>
+        <v>2285.1355239999998</v>
       </c>
       <c r="K2">
-        <f>'[1]Maidontuotanto uusi'!H7</f>
-        <v>2261808951</v>
+        <f>'[1]Maidontuotanto uusi'!H7/1000000</f>
+        <v>2261.808951</v>
       </c>
       <c r="L2">
-        <f>'[1]Maidontuotanto uusi'!I7</f>
-        <v>2293326383</v>
+        <f>'[1]Maidontuotanto uusi'!I7/1000000</f>
+        <v>2293.3263830000001</v>
       </c>
       <c r="M2">
-        <f>'[1]Maidontuotanto uusi'!J7</f>
-        <v>2205728462</v>
+        <f>'[1]Maidontuotanto uusi'!J7/1000000</f>
+        <v>2205.728462</v>
       </c>
       <c r="N2">
-        <f>'[1]Maidontuotanto uusi'!K7</f>
-        <v>2161613892.7599998</v>
+        <f>'[1]Maidontuotanto uusi'!K7/1000000</f>
+        <v>2139.5566081399998</v>
       </c>
       <c r="O2">
-        <f>'[1]Maidontuotanto uusi'!L7</f>
-        <v>2161613892.7599998</v>
+        <f>'[1]Maidontuotanto uusi'!L7/1000000</f>
+        <v>2118.1610420585998</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2046,411 +2081,411 @@
       </c>
       <c r="O3">
         <f>'[1]Maidon hinnat uusi'!M$12</f>
-        <v>45.494</v>
+        <v>45.94894</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$25/1000000</f>
+        <v>186.06802499999998</v>
+      </c>
+      <c r="G4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$25/1000000</f>
+        <v>191.92866140000001</v>
+      </c>
+      <c r="H4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$25/1000000</f>
+        <v>190.10077459999999</v>
+      </c>
+      <c r="I4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$25/1000000</f>
+        <v>181.51966519999999</v>
+      </c>
+      <c r="J4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$25/1000000</f>
+        <v>168.87611100000001</v>
+      </c>
+      <c r="K4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$25/1000000</f>
+        <v>171.12755959999998</v>
+      </c>
+      <c r="L4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$25/1000000</f>
+        <v>175.74671189999998</v>
+      </c>
+      <c r="M4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$25/1000000</f>
+        <v>176.03056770000001</v>
+      </c>
+      <c r="N4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$25/1000000</f>
+        <v>168.98934499200001</v>
+      </c>
+      <c r="O4">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$25/1000000</f>
+        <v>165.60955809216003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'[1]Maidon hinnat uusi'!D$31</f>
-        <v>37.008333333333297</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'[1]Maidon hinnat uusi'!E$31</f>
-        <v>30.342500000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'[1]Maidon hinnat uusi'!F$31</f>
-        <v>28.6041666666667</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'[1]Maidon hinnat uusi'!G$31</f>
-        <v>35.1933333333333</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'[1]Maidon hinnat uusi'!H$31</f>
-        <v>34.307499999999997</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'[1]Maidon hinnat uusi'!I$31</f>
-        <v>34.780105666666699</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'[1]Maidon hinnat uusi'!J$31</f>
-        <v>34.136991666666702</v>
-      </c>
-      <c r="M4" s="2">
-        <f>'[1]Maidon hinnat uusi'!K$31</f>
-        <v>36.822174250000003</v>
-      </c>
-      <c r="N4" s="2">
-        <f>'[1]Maidon hinnat uusi'!L$31</f>
-        <v>36.822174250000003</v>
-      </c>
-      <c r="O4" s="2">
-        <f>'[1]Maidon hinnat uusi'!M$31</f>
-        <v>36.822174250000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$25</f>
-        <v>186068024.99999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="G5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$25</f>
-        <v>191928661.40000001</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$26/1000000</f>
+        <v>188.5934153999998</v>
       </c>
       <c r="H5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$25</f>
-        <v>190100774.59999999</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$26/1000000</f>
+        <v>182.14262259999973</v>
       </c>
       <c r="I5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$25</f>
-        <v>181519665.19999999</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$26/1000000</f>
+        <v>178.18732519999989</v>
       </c>
       <c r="J5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$25</f>
-        <v>168876111</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$26/1000000</f>
+        <v>178.08077999999969</v>
       </c>
       <c r="K5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$25</f>
-        <v>171127559.59999999</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$26/1000000</f>
+        <v>166.42963959999992</v>
       </c>
       <c r="L5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$25</f>
-        <v>175746711.89999998</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$26/1000000</f>
+        <v>155.95066689999987</v>
       </c>
       <c r="M5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$25</f>
-        <v>176030567.70000002</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$26/1000000</f>
+        <v>160.89481169999951</v>
       </c>
       <c r="N5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$25</f>
-        <v>168989344.99200001</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$26/1000000</f>
+        <v>160.09033764149953</v>
       </c>
       <c r="O5">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$25</f>
-        <v>168144398.26704001</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$26/1000000</f>
+        <v>159.28988595329204</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$53</f>
-        <v>34.6</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$40/1000000</f>
+        <v>113.3724895</v>
       </c>
       <c r="G6">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$53</f>
-        <v>34.9</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$40/1000000</f>
+        <v>117.35784770000001</v>
       </c>
       <c r="H6">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$53</f>
-        <v>34.700000000000003</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$40/1000000</f>
+        <v>125.40760619999999</v>
       </c>
       <c r="I6">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$53</f>
-        <v>33.4</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$40/1000000</f>
+        <v>128.8665853</v>
       </c>
       <c r="J6">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$53</f>
-        <v>32.5</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$40/1000000</f>
+        <v>135.317508</v>
       </c>
       <c r="K6">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$53</f>
-        <v>30.8</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$40/1000000</f>
+        <v>139.12311019999999</v>
       </c>
       <c r="L6">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$53</f>
-        <v>29.7</v>
-      </c>
-      <c r="M6" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$53</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N6" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$53</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O6" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$53</f>
-        <v>#N/A</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$40/1000000</f>
+        <v>145.31932599999999</v>
+      </c>
+      <c r="M6">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$40/1000000</f>
+        <v>147.1618565</v>
+      </c>
+      <c r="N6">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$40/1000000</f>
+        <v>148.633475065</v>
+      </c>
+      <c r="O6">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$40/1000000</f>
+        <v>150.11980981564997</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$40</f>
-        <v>113372489.5</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="G7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$40</f>
-        <v>117357847.7</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="H7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$40</f>
-        <v>125407606.19999999</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="I7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$40</f>
-        <v>128866585.3</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="J7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$40</f>
-        <v>135317508</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="K7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$40</f>
-        <v>139123110.19999999</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="L7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$40</f>
-        <v>145319326</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="M7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$40</f>
-        <v>147161856.5</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="N7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$40</f>
-        <v>147897665.7825</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
       <c r="O7">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$40</f>
-        <v>147897665.7825</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
+        <v>186.58027499999946</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$55</f>
-        <v>20.100000000000001</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$41/1000000</f>
+        <v>108.8305045</v>
       </c>
       <c r="G8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$55</f>
-        <v>21.6</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$41/1000000</f>
+        <v>111.18769569999999</v>
       </c>
       <c r="H8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$55</f>
-        <v>23.5</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$41/1000000</f>
+        <v>119.53128419999966</v>
       </c>
       <c r="I8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$55</f>
-        <v>24.9</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$41/1000000</f>
+        <v>127.40067629999979</v>
       </c>
       <c r="J8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$55</f>
-        <v>25.6</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$41/1000000</f>
+        <v>132.28597999999968</v>
       </c>
       <c r="K8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$55</f>
-        <v>26.4</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$41/1000000</f>
+        <v>134.79437419999982</v>
       </c>
       <c r="L8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$55</f>
-        <v>27.5</v>
-      </c>
-      <c r="M8" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$55</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$55</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$55</f>
-        <v>#N/A</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$41/1000000</f>
+        <v>140.8120909999997</v>
+      </c>
+      <c r="M8">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$41/1000000</f>
+        <v>143.32811249999958</v>
+      </c>
+      <c r="N8">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$41/1000000</f>
+        <v>144.76139362499958</v>
+      </c>
+      <c r="O8">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$41/1000000</f>
+        <v>146.20900756124959</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="G9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="H9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="I9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="J9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="K9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="L9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="M9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="N9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+      <c r="O9">
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
+        <v>94.77443569999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$10</f>
-        <v>82315768.700000003</v>
-      </c>
-      <c r="G9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$10</f>
-        <v>85768467.600000009</v>
-      </c>
-      <c r="H9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$10</f>
-        <v>86034058.799999997</v>
-      </c>
-      <c r="I9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$10</f>
-        <v>85393390.5</v>
-      </c>
-      <c r="J9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$10</f>
-        <v>86477330</v>
-      </c>
-      <c r="K9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$10</f>
-        <v>87179708.900000006</v>
-      </c>
-      <c r="L9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$10</f>
-        <v>86525182.200000003</v>
-      </c>
-      <c r="M9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$10</f>
-        <v>85672404.399999991</v>
-      </c>
-      <c r="N9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$10</f>
-        <v>84815680.355999991</v>
-      </c>
-      <c r="O9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$10</f>
-        <v>84815680.355999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$52</f>
-        <v>18.7</v>
+        <f>'[2]Hinnat Suomi'!D$15*100</f>
+        <v>-2.3992786061640459</v>
       </c>
       <c r="G10">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$52</f>
-        <v>19.2</v>
+        <f>'[2]Hinnat Suomi'!E$15*100</f>
+        <v>-4.3588728304626123</v>
       </c>
       <c r="H10">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$52</f>
-        <v>19.2</v>
+        <f>'[2]Hinnat Suomi'!F$15*100</f>
+        <v>-1.8423322408142262</v>
       </c>
       <c r="I10">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$52</f>
-        <v>19.399999999999999</v>
+        <f>'[2]Hinnat Suomi'!G$15*100</f>
+        <v>4.7977223999156493</v>
       </c>
       <c r="J10">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$52</f>
-        <v>19.3</v>
+        <f>'[2]Hinnat Suomi'!H$15*100</f>
+        <v>4.6082640193184643</v>
       </c>
       <c r="K10">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$52</f>
-        <v>18.8</v>
+        <f>'[2]Hinnat Suomi'!I$15*100</f>
+        <v>1.465213209361993</v>
       </c>
       <c r="L10">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$52</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="M10" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$52</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$52</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" t="e">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$52</f>
-        <v>#N/A</v>
+        <f>'[2]Hinnat Suomi'!J$15*100</f>
+        <v>-0.26542800265428879</v>
+      </c>
+      <c r="M10">
+        <f>'[2]Hinnat Suomi'!K$15*100</f>
+        <v>1.5904698539429107</v>
+      </c>
+      <c r="N10">
+        <f>'[2]Hinnat Suomi'!L$15*100</f>
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <f>'[2]Hinnat Suomi'!M$15*100</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2459,55 +2494,55 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <f>'[2]Hinnat Suomi'!D$6</f>
-        <v>303.06</v>
+        <f>'[2]Hinnat Suomi'!D$17 * 100</f>
+        <v>-9.0496698248636385</v>
       </c>
       <c r="G11">
-        <f>'[2]Hinnat Suomi'!E$6</f>
-        <v>289.85000000000002</v>
+        <f>'[2]Hinnat Suomi'!E$17 * 100</f>
+        <v>-8.0560641454637256</v>
       </c>
       <c r="H11">
-        <f>'[2]Hinnat Suomi'!F$6</f>
-        <v>284.51</v>
+        <f>'[2]Hinnat Suomi'!F$17 * 100</f>
+        <v>-4.1612305156904501</v>
       </c>
       <c r="I11">
-        <f>'[2]Hinnat Suomi'!G$6</f>
-        <v>298.16000000000003</v>
+        <f>'[2]Hinnat Suomi'!G$17 * 100</f>
+        <v>5.7963745790642784</v>
       </c>
       <c r="J11">
-        <f>'[2]Hinnat Suomi'!H$6</f>
-        <v>311.89999999999998</v>
+        <f>'[2]Hinnat Suomi'!H$17 * 100</f>
+        <v>3.1829879452797138</v>
       </c>
       <c r="K11">
-        <f>'[2]Hinnat Suomi'!I$6</f>
-        <v>316.47000000000003</v>
+        <f>'[2]Hinnat Suomi'!I$17 * 100</f>
+        <v>3.9314780782357506</v>
       </c>
       <c r="L11">
-        <f>'[2]Hinnat Suomi'!J$6</f>
-        <v>315.63</v>
+        <f>'[2]Hinnat Suomi'!J$17 * 100</f>
+        <v>2.1597726555099506</v>
       </c>
       <c r="M11">
-        <f>'[2]Hinnat Suomi'!K$6</f>
-        <v>320.64999999999998</v>
+        <f>'[2]Hinnat Suomi'!K$17 * 100</f>
+        <v>-4.0798664770971271</v>
       </c>
       <c r="N11">
-        <f>'[2]Hinnat Suomi'!L$6</f>
-        <v>346.30200000000002</v>
+        <f>'[2]Hinnat Suomi'!L$17 * 100</f>
+        <v>13</v>
       </c>
       <c r="O11">
-        <f>'[2]Hinnat Suomi'!M$6</f>
-        <v>346.30200000000002</v>
+        <f>'[2]Hinnat Suomi'!M$17 * 100</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2516,345 +2551,388 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <f>'[2]Hinnat Suomi'!D$8</f>
-        <v>158.38999999999999</v>
+        <f>'[2]Hinnat Suomi'!D20*100</f>
+        <v>-3.9810672372430744</v>
       </c>
       <c r="G12">
-        <f>'[2]Hinnat Suomi'!E$8</f>
-        <v>145.63</v>
+        <f>'[2]Hinnat Suomi'!E20*100</f>
+        <v>-6.2529542845566777</v>
       </c>
       <c r="H12">
-        <f>'[2]Hinnat Suomi'!F$8</f>
-        <v>139.57</v>
+        <f>'[2]Hinnat Suomi'!F20*100</f>
+        <v>-2.7371605560757795</v>
       </c>
       <c r="I12">
-        <f>'[2]Hinnat Suomi'!G$8</f>
-        <v>147.66</v>
+        <f>'[2]Hinnat Suomi'!G20*100</f>
+        <v>-1.3182255795008535</v>
       </c>
       <c r="J12">
-        <f>'[2]Hinnat Suomi'!H$8</f>
-        <v>152.36000000000001</v>
+        <f>'[2]Hinnat Suomi'!H20*100</f>
+        <v>1.703564727954987</v>
       </c>
       <c r="K12">
-        <f>'[2]Hinnat Suomi'!I$8</f>
-        <v>158.35</v>
+        <f>'[2]Hinnat Suomi'!I20*100</f>
+        <v>3.3574380165289019</v>
       </c>
       <c r="L12">
-        <f>'[2]Hinnat Suomi'!J$8</f>
-        <v>161.77000000000001</v>
+        <f>'[2]Hinnat Suomi'!J20*100</f>
+        <v>-3.6053401870493218</v>
       </c>
       <c r="M12">
-        <f>'[2]Hinnat Suomi'!K$8</f>
-        <v>155.16999999999999</v>
+        <f>'[2]Hinnat Suomi'!K20*100</f>
+        <v>0.43697230039994039</v>
       </c>
       <c r="N12">
-        <f>'[2]Hinnat Suomi'!L$8</f>
-        <v>173.79040000000001</v>
+        <f>'[2]Hinnat Suomi'!L20*100</f>
+        <v>17</v>
       </c>
       <c r="O12">
-        <f>'[2]Hinnat Suomi'!M$8</f>
-        <v>173.79040000000001</v>
+        <f>'[2]Hinnat Suomi'!M20*100</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <f>[3]viljan_tuotanto_uusi!B$4/1000</f>
+        <v>716.50800000000004</v>
+      </c>
+      <c r="G13">
+        <f>[3]viljan_tuotanto_uusi!C$4/1000</f>
+        <v>730.255</v>
+      </c>
+      <c r="H13">
+        <f>[3]viljan_tuotanto_uusi!D$4/1000</f>
+        <v>737.95799999999997</v>
+      </c>
+      <c r="I13">
+        <f>[3]viljan_tuotanto_uusi!E$4/1000</f>
+        <v>756.14400000000001</v>
+      </c>
+      <c r="J13">
+        <f>[3]viljan_tuotanto_uusi!F$4/1000</f>
+        <v>761.56299999999999</v>
+      </c>
+      <c r="K13">
+        <f>[3]viljan_tuotanto_uusi!G$4/1000</f>
+        <v>731.50800000000004</v>
+      </c>
+      <c r="L13">
+        <f>[3]viljan_tuotanto_uusi!H$4/1000</f>
+        <v>762.37199999999996</v>
+      </c>
+      <c r="M13">
+        <f>[3]viljan_tuotanto_uusi!I$4/1000</f>
+        <v>776.00400000000002</v>
+      </c>
+      <c r="N13">
+        <f>[3]viljan_tuotanto_uusi!J$4/1000</f>
+        <v>778.52200000000005</v>
+      </c>
+      <c r="O13">
+        <f>[3]viljan_tuotanto_uusi!K$4/1000</f>
+        <v>786.30721999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <f>'[2]Hinnat Suomi'!D$11</f>
-        <v>148.09</v>
-      </c>
-      <c r="G13">
-        <f>'[2]Hinnat Suomi'!E$11</f>
-        <v>138.83000000000001</v>
-      </c>
-      <c r="H13">
-        <f>'[2]Hinnat Suomi'!F$11</f>
-        <v>135.03</v>
-      </c>
-      <c r="I13">
-        <f>'[2]Hinnat Suomi'!G$11</f>
-        <v>133.25</v>
-      </c>
-      <c r="J13">
-        <f>'[2]Hinnat Suomi'!H$11</f>
-        <v>135.52000000000001</v>
-      </c>
-      <c r="K13">
-        <f>'[2]Hinnat Suomi'!I$11</f>
-        <v>140.07</v>
-      </c>
-      <c r="L13">
-        <f>'[2]Hinnat Suomi'!J$11</f>
-        <v>135.02000000000001</v>
-      </c>
-      <c r="M13">
-        <f>'[2]Hinnat Suomi'!K$11</f>
-        <v>135.61000000000001</v>
-      </c>
-      <c r="N13">
-        <f>'[2]Hinnat Suomi'!L$11</f>
-        <v>154.59540000000004</v>
-      </c>
-      <c r="O13">
-        <f>'[2]Hinnat Suomi'!M$11</f>
-        <v>154.59540000000004</v>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <f>'[4]Tuotanto uusi'!C$2</f>
+        <v>1088.2</v>
+      </c>
+      <c r="G14">
+        <f>'[4]Tuotanto uusi'!D$2</f>
+        <v>992.1</v>
+      </c>
+      <c r="H14">
+        <f>'[4]Tuotanto uusi'!E$2</f>
+        <v>823.9</v>
+      </c>
+      <c r="I14">
+        <f>'[4]Tuotanto uusi'!F$2</f>
+        <v>802</v>
+      </c>
+      <c r="J14">
+        <f>'[4]Tuotanto uusi'!G$2</f>
+        <v>494.7</v>
+      </c>
+      <c r="K14">
+        <f>'[4]Tuotanto uusi'!H$2</f>
+        <v>901.6</v>
+      </c>
+      <c r="L14">
+        <f>'[4]Tuotanto uusi'!I$2</f>
+        <v>677.4</v>
+      </c>
+      <c r="M14">
+        <f>'[4]Tuotanto uusi'!J$2</f>
+        <v>677.7</v>
+      </c>
+      <c r="N14">
+        <f>'[4]Tuotanto uusi'!K$2</f>
+        <v>806.46299999999997</v>
+      </c>
+      <c r="O14">
+        <f>'[4]Tuotanto uusi'!L$2</f>
+        <v>822.59226000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <f>'[3]Tuotanto uusi'!C$2</f>
-        <v>1088.2</v>
+        <f>'[4]Tuotanto uusi'!C$3</f>
+        <v>74.900000000000006</v>
       </c>
       <c r="G15">
-        <f>'[3]Tuotanto uusi'!D$2</f>
-        <v>992.1</v>
+        <f>'[4]Tuotanto uusi'!D$3</f>
+        <v>107.5</v>
       </c>
       <c r="H15">
-        <f>'[3]Tuotanto uusi'!E$2</f>
-        <v>823.9</v>
+        <f>'[4]Tuotanto uusi'!E$3</f>
+        <v>86.8</v>
       </c>
       <c r="I15">
-        <f>'[3]Tuotanto uusi'!F$2</f>
-        <v>802</v>
+        <f>'[4]Tuotanto uusi'!F$3</f>
+        <v>113.5</v>
       </c>
       <c r="J15">
-        <f>'[3]Tuotanto uusi'!G$2</f>
-        <v>494.7</v>
+        <f>'[4]Tuotanto uusi'!G$3</f>
+        <v>42.3</v>
       </c>
       <c r="K15">
-        <f>'[3]Tuotanto uusi'!H$2</f>
-        <v>901.6</v>
+        <f>'[4]Tuotanto uusi'!H$3</f>
+        <v>182.5</v>
       </c>
       <c r="L15">
-        <f>'[3]Tuotanto uusi'!I$2</f>
-        <v>677.4</v>
+        <f>'[4]Tuotanto uusi'!I$3</f>
+        <v>67.400000000000006</v>
       </c>
       <c r="M15">
-        <f>'[3]Tuotanto uusi'!J$2</f>
-        <v>677.7</v>
+        <f>'[4]Tuotanto uusi'!J$3</f>
+        <v>66.8</v>
       </c>
       <c r="N15">
-        <f>'[3]Tuotanto uusi'!K$2</f>
-        <v>840.34800000000007</v>
+        <f>'[4]Tuotanto uusi'!K$3</f>
+        <v>76.819999999999993</v>
       </c>
       <c r="O15">
-        <f>'[3]Tuotanto uusi'!L$2</f>
-        <v>882.36540000000014</v>
+        <f>'[4]Tuotanto uusi'!L$3</f>
+        <v>78.356399999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <f>'[3]Tuotanto uusi'!C$3</f>
-        <v>74.900000000000006</v>
+        <f>'[4]Tuotanto uusi'!C$4</f>
+        <v>1854.8</v>
       </c>
       <c r="G16">
-        <f>'[3]Tuotanto uusi'!D$3</f>
-        <v>107.5</v>
+        <f>'[4]Tuotanto uusi'!D$4</f>
+        <v>1569</v>
       </c>
       <c r="H16">
-        <f>'[3]Tuotanto uusi'!E$3</f>
-        <v>86.8</v>
+        <f>'[4]Tuotanto uusi'!E$4</f>
+        <v>1580.7</v>
       </c>
       <c r="I16">
-        <f>'[3]Tuotanto uusi'!F$3</f>
-        <v>113.5</v>
+        <f>'[4]Tuotanto uusi'!F$4</f>
+        <v>1460.1</v>
       </c>
       <c r="J16">
-        <f>'[3]Tuotanto uusi'!G$3</f>
-        <v>42.3</v>
+        <f>'[4]Tuotanto uusi'!G$4</f>
+        <v>1336.1</v>
       </c>
       <c r="K16">
-        <f>'[3]Tuotanto uusi'!H$3</f>
-        <v>182.5</v>
+        <f>'[4]Tuotanto uusi'!H$4</f>
+        <v>1682.4</v>
       </c>
       <c r="L16">
-        <f>'[3]Tuotanto uusi'!I$3</f>
-        <v>67.400000000000006</v>
+        <f>'[4]Tuotanto uusi'!I$4</f>
+        <v>1381.9</v>
       </c>
       <c r="M16">
-        <f>'[3]Tuotanto uusi'!J$3</f>
-        <v>66.8</v>
+        <f>'[4]Tuotanto uusi'!J$4</f>
+        <v>1032.3</v>
       </c>
       <c r="N16">
-        <f>'[3]Tuotanto uusi'!K$3</f>
-        <v>80.16</v>
+        <f>'[4]Tuotanto uusi'!K$4</f>
+        <v>1228.4369999999999</v>
       </c>
       <c r="O16">
-        <f>'[3]Tuotanto uusi'!L$3</f>
-        <v>81.763199999999998</v>
+        <f>'[4]Tuotanto uusi'!L$4</f>
+        <v>1265.2901099999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <f>'[3]Tuotanto uusi'!C$4</f>
-        <v>1854.8</v>
+        <f>'[4]Tuotanto uusi'!C$5</f>
+        <v>1039</v>
       </c>
       <c r="G17">
-        <f>'[3]Tuotanto uusi'!D$4</f>
-        <v>1569</v>
+        <f>'[4]Tuotanto uusi'!D$5</f>
+        <v>979.6</v>
       </c>
       <c r="H17">
-        <f>'[3]Tuotanto uusi'!E$4</f>
-        <v>1580.7</v>
+        <f>'[4]Tuotanto uusi'!E$5</f>
+        <v>1035.0999999999999</v>
       </c>
       <c r="I17">
-        <f>'[3]Tuotanto uusi'!F$4</f>
-        <v>1460.1</v>
+        <f>'[4]Tuotanto uusi'!F$5</f>
+        <v>1013.9</v>
       </c>
       <c r="J17">
-        <f>'[3]Tuotanto uusi'!G$4</f>
-        <v>1336.1</v>
+        <f>'[4]Tuotanto uusi'!G$5</f>
+        <v>818.2</v>
       </c>
       <c r="K17">
-        <f>'[3]Tuotanto uusi'!H$4</f>
-        <v>1682.4</v>
+        <f>'[4]Tuotanto uusi'!H$5</f>
+        <v>1169.8</v>
       </c>
       <c r="L17">
-        <f>'[3]Tuotanto uusi'!I$4</f>
-        <v>1381.9</v>
+        <f>'[4]Tuotanto uusi'!I$5</f>
+        <v>1194.5999999999999</v>
       </c>
       <c r="M17">
-        <f>'[3]Tuotanto uusi'!J$4</f>
-        <v>1032.3</v>
+        <f>'[4]Tuotanto uusi'!J$5</f>
+        <v>790.2</v>
       </c>
       <c r="N17">
-        <f>'[3]Tuotanto uusi'!K$4</f>
-        <v>1321.3440000000001</v>
+        <f>'[4]Tuotanto uusi'!K$5</f>
+        <v>948.24</v>
       </c>
       <c r="O17">
-        <f>'[3]Tuotanto uusi'!L$4</f>
-        <v>1387.4112</v>
+        <f>'[4]Tuotanto uusi'!L$5</f>
+        <v>976.68720000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18">
-        <f>'[3]Tuotanto uusi'!C$5</f>
-        <v>1039</v>
-      </c>
-      <c r="G18">
-        <f>'[3]Tuotanto uusi'!D$5</f>
-        <v>979.6</v>
-      </c>
-      <c r="H18">
-        <f>'[3]Tuotanto uusi'!E$5</f>
-        <v>1035.0999999999999</v>
-      </c>
-      <c r="I18">
-        <f>'[3]Tuotanto uusi'!F$5</f>
-        <v>1013.9</v>
-      </c>
-      <c r="J18">
-        <f>'[3]Tuotanto uusi'!G$5</f>
-        <v>818.2</v>
-      </c>
-      <c r="K18">
-        <f>'[3]Tuotanto uusi'!H$5</f>
-        <v>1169.8</v>
-      </c>
-      <c r="L18">
-        <f>'[3]Tuotanto uusi'!I$5</f>
-        <v>1194.5999999999999</v>
-      </c>
-      <c r="M18">
-        <f>'[3]Tuotanto uusi'!J$5</f>
-        <v>790.2</v>
-      </c>
-      <c r="N18">
-        <f>'[3]Tuotanto uusi'!K$5</f>
-        <v>1011.4560000000001</v>
-      </c>
-      <c r="O18">
-        <f>'[3]Tuotanto uusi'!L$5</f>
-        <v>1112.6016000000002</v>
+        <v>25</v>
+      </c>
+      <c r="F18" s="3">
+        <f>'[4]Hinnat uusi'!D$5</f>
+        <v>155.91999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <f>'[4]Hinnat uusi'!E$5</f>
+        <v>150.51</v>
+      </c>
+      <c r="H18" s="3">
+        <f>'[4]Hinnat uusi'!F$5</f>
+        <v>139.4</v>
+      </c>
+      <c r="I18" s="3">
+        <f>'[4]Hinnat uusi'!G$5</f>
+        <v>148.02000000000001</v>
+      </c>
+      <c r="J18" s="3">
+        <f>'[4]Hinnat uusi'!H$5</f>
+        <v>176.5</v>
+      </c>
+      <c r="K18" s="3">
+        <f>'[4]Hinnat uusi'!I$5</f>
+        <v>175.2</v>
+      </c>
+      <c r="L18" s="3">
+        <f>'[4]Hinnat uusi'!J$5</f>
+        <v>160.88</v>
+      </c>
+      <c r="M18" s="3">
+        <f>'[4]Hinnat uusi'!K$5</f>
+        <v>208.51</v>
+      </c>
+      <c r="N18" s="3">
+        <f>'[4]Hinnat uusi'!L$5</f>
+        <v>245</v>
+      </c>
+      <c r="O18" s="3">
+        <f>'[4]Hinnat uusi'!M$5</f>
+        <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2863,55 +2941,55 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="4">
-        <f>'[3]Hinnat uusi'!D$5</f>
-        <v>155.91999999999999</v>
-      </c>
-      <c r="G19" s="4">
-        <f>'[3]Hinnat uusi'!E$5</f>
-        <v>150.51</v>
-      </c>
-      <c r="H19" s="4">
-        <f>'[3]Hinnat uusi'!F$5</f>
-        <v>139.4</v>
-      </c>
-      <c r="I19" s="4">
-        <f>'[3]Hinnat uusi'!G$5</f>
-        <v>148.02000000000001</v>
-      </c>
-      <c r="J19" s="4">
-        <f>'[3]Hinnat uusi'!H$5</f>
-        <v>176.5</v>
-      </c>
-      <c r="K19" s="4">
-        <f>'[3]Hinnat uusi'!I$5</f>
-        <v>175.2</v>
-      </c>
-      <c r="L19" s="4">
-        <f>'[3]Hinnat uusi'!J$5</f>
-        <v>160.88</v>
-      </c>
-      <c r="M19" s="4">
-        <f>'[3]Hinnat uusi'!K$5</f>
-        <v>208.51</v>
-      </c>
-      <c r="N19" s="4">
-        <f>'[3]Hinnat uusi'!L$5</f>
-        <v>280</v>
-      </c>
-      <c r="O19" s="4">
-        <f>'[3]Hinnat uusi'!M$5</f>
+        <v>28</v>
+      </c>
+      <c r="F19" s="3">
+        <f>'[4]Hinnat uusi'!D$12</f>
+        <v>126.27</v>
+      </c>
+      <c r="G19" s="3">
+        <f>'[4]Hinnat uusi'!E$12</f>
+        <v>132.86000000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <f>'[4]Hinnat uusi'!F$12</f>
+        <v>128.76</v>
+      </c>
+      <c r="I19" s="3">
+        <f>'[4]Hinnat uusi'!G$12</f>
+        <v>134.69</v>
+      </c>
+      <c r="J19" s="3">
+        <f>'[4]Hinnat uusi'!H$12</f>
+        <v>177.85</v>
+      </c>
+      <c r="K19" s="3">
+        <f>'[4]Hinnat uusi'!I$12</f>
+        <v>170.51</v>
+      </c>
+      <c r="L19" s="3">
+        <f>'[4]Hinnat uusi'!J$12</f>
+        <v>153.07</v>
+      </c>
+      <c r="M19" s="3">
+        <f>'[4]Hinnat uusi'!K$12</f>
+        <v>173.28</v>
+      </c>
+      <c r="N19" s="3">
+        <f>'[4]Hinnat uusi'!L$12</f>
         <v>210</v>
       </c>
+      <c r="O19" s="3">
+        <f>'[4]Hinnat uusi'!M$12</f>
+        <v>175</v>
+      </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2920,55 +2998,55 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="4">
-        <f>'[3]Hinnat uusi'!D$12</f>
-        <v>126.27</v>
-      </c>
-      <c r="G20" s="4">
-        <f>'[3]Hinnat uusi'!E$12</f>
-        <v>132.86000000000001</v>
-      </c>
-      <c r="H20" s="4">
-        <f>'[3]Hinnat uusi'!F$12</f>
-        <v>128.76</v>
-      </c>
-      <c r="I20" s="4">
-        <f>'[3]Hinnat uusi'!G$12</f>
-        <v>134.69</v>
-      </c>
-      <c r="J20" s="4">
-        <f>'[3]Hinnat uusi'!H$12</f>
-        <v>177.85</v>
-      </c>
-      <c r="K20" s="4">
-        <f>'[3]Hinnat uusi'!I$12</f>
-        <v>170.51</v>
-      </c>
-      <c r="L20" s="4">
-        <f>'[3]Hinnat uusi'!J$12</f>
-        <v>153.07</v>
-      </c>
-      <c r="M20" s="4">
-        <f>'[3]Hinnat uusi'!K$12</f>
-        <v>173.28</v>
-      </c>
-      <c r="N20" s="4">
-        <f>'[3]Hinnat uusi'!L$12</f>
-        <v>280</v>
-      </c>
-      <c r="O20" s="4">
-        <f>'[3]Hinnat uusi'!M$12</f>
-        <v>175</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="3">
+        <f>'[4]Hinnat uusi'!D$9</f>
+        <v>138.75</v>
+      </c>
+      <c r="G20" s="3">
+        <f>'[4]Hinnat uusi'!E$9</f>
+        <v>142</v>
+      </c>
+      <c r="H20" s="3">
+        <f>'[4]Hinnat uusi'!F$9</f>
+        <v>132.38999999999999</v>
+      </c>
+      <c r="I20" s="3">
+        <f>'[4]Hinnat uusi'!G$9</f>
+        <v>138.41</v>
+      </c>
+      <c r="J20" s="3">
+        <f>'[4]Hinnat uusi'!H$9</f>
+        <v>173.65</v>
+      </c>
+      <c r="K20" s="3">
+        <f>'[4]Hinnat uusi'!I$9</f>
+        <v>166.2</v>
+      </c>
+      <c r="L20" s="3">
+        <f>'[4]Hinnat uusi'!J$9</f>
+        <v>145.37</v>
+      </c>
+      <c r="M20" s="3">
+        <f>'[4]Hinnat uusi'!K$9</f>
+        <v>193.65</v>
+      </c>
+      <c r="N20" s="3">
+        <f>'[4]Hinnat uusi'!L$9</f>
+        <v>220</v>
+      </c>
+      <c r="O20" s="3">
+        <f>'[4]Hinnat uusi'!M$9</f>
+        <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2977,992 +3055,898 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
+        <f>'[4]Hinnat uusi'!D$8</f>
+        <v>196.55</v>
+      </c>
+      <c r="G21" s="3">
+        <f>'[4]Hinnat uusi'!E$8</f>
+        <v>174.92</v>
+      </c>
+      <c r="H21" s="3">
+        <f>'[4]Hinnat uusi'!F$8</f>
+        <v>170.52</v>
+      </c>
+      <c r="I21" s="3">
+        <f>'[4]Hinnat uusi'!G$8</f>
+        <v>164.02</v>
+      </c>
+      <c r="J21" s="3">
+        <f>'[4]Hinnat uusi'!H$8</f>
+        <v>180.64</v>
+      </c>
+      <c r="K21" s="3">
+        <f>'[4]Hinnat uusi'!I$8</f>
+        <v>167.74</v>
+      </c>
+      <c r="L21" s="3">
+        <f>'[4]Hinnat uusi'!J$8</f>
+        <v>156.74</v>
+      </c>
+      <c r="M21" s="3">
+        <f>'[4]Hinnat uusi'!K$8</f>
+        <v>166.78</v>
+      </c>
+      <c r="N21" s="3">
+        <f>'[4]Hinnat uusi'!L$8</f>
+        <v>180</v>
+      </c>
+      <c r="O21" s="3">
+        <f>'[4]Hinnat uusi'!M$8</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!C$52*100</f>
+        <v>-5.0182481751822046</v>
+      </c>
+      <c r="G22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!D$52*100</f>
+        <v>-11.335254562920237</v>
+      </c>
+      <c r="H22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!E$52*100</f>
+        <v>-6.7255604633719486</v>
+      </c>
+      <c r="I22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!F$52*100</f>
+        <v>9.7659042172980381</v>
+      </c>
+      <c r="J22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!G$52*100</f>
+        <v>10.394790394790721</v>
+      </c>
+      <c r="K22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!H$52*100</f>
+        <v>2.7134640908414553</v>
+      </c>
+      <c r="L22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!I$52*100</f>
+        <v>-13.27351040918856</v>
+      </c>
+      <c r="M22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!J$52*100</f>
+        <v>19.236818144193691</v>
+      </c>
+      <c r="N22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!K$52*100</f>
+        <v>30</v>
+      </c>
+      <c r="O22" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!L$52*100</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!C$53*100</f>
+        <v>-0.91705891900600855</v>
+      </c>
+      <c r="G23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!D$53*100</f>
+        <v>-1.7200425915311235</v>
+      </c>
+      <c r="H23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!E$53*100</f>
+        <v>-13.759479956663112</v>
+      </c>
+      <c r="I23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!F$53*100</f>
+        <v>1.6138384228836733</v>
+      </c>
+      <c r="J23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!G$53*100</f>
+        <v>2.0827389443651922</v>
+      </c>
+      <c r="K23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!H$53*100</f>
+        <v>2.1706726290292799</v>
+      </c>
+      <c r="L23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!I$53*100</f>
+        <v>-8.2611470775964193</v>
+      </c>
+      <c r="M23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!J$53*100</f>
+        <v>42.600139151177352</v>
+      </c>
+      <c r="N23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!K$53*100</f>
+        <v>65</v>
+      </c>
+      <c r="O23" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!L$53*100</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!C$54*100</f>
+        <v>-8.4998885504120931</v>
+      </c>
+      <c r="G24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!D$54*100</f>
+        <v>-2.5578562728379994</v>
+      </c>
+      <c r="H24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!E$54*100</f>
+        <v>-2.8750000000000053</v>
+      </c>
+      <c r="I24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!F$54*100</f>
+        <v>-0.49764049764047247</v>
+      </c>
+      <c r="J24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!G$54*100</f>
+        <v>7.3639734414068903</v>
+      </c>
+      <c r="K24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!H$54*100</f>
+        <v>2.5459802425511269</v>
+      </c>
+      <c r="L24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!I$54*100</f>
+        <v>-7.1036967418546144</v>
+      </c>
+      <c r="M24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!J$54*100</f>
+        <v>12.241800859961515</v>
+      </c>
+      <c r="N24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!K$54*100</f>
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="O24" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!L$54*100</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!C$57*100</f>
+        <v>-1.6057451787296118</v>
+      </c>
+      <c r="G25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!D$57*100</f>
+        <v>-1.5827456125970141</v>
+      </c>
+      <c r="H25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!E$57*100</f>
+        <v>-2.5747854345468335</v>
+      </c>
+      <c r="I25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!F$57*100</f>
+        <v>1.5566199110503387</v>
+      </c>
+      <c r="J25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!G$57*100</f>
+        <v>3.7308404918312332</v>
+      </c>
+      <c r="K25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!H$57*100</f>
+        <v>2.0378338881214431</v>
+      </c>
+      <c r="L25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!I$57*100</f>
+        <v>-3.5486950986626353</v>
+      </c>
+      <c r="M25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!J$57*100</f>
+        <v>10.493317934334234</v>
+      </c>
+      <c r="N25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!K$57*100</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <f>'[5]Uusi Tuotantopanokset'!L$57*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="4">
-        <f>'[3]Hinnat uusi'!D$9</f>
-        <v>138.75</v>
-      </c>
-      <c r="G21" s="4">
-        <f>'[3]Hinnat uusi'!E$9</f>
-        <v>142</v>
-      </c>
-      <c r="H21" s="4">
-        <f>'[3]Hinnat uusi'!F$9</f>
-        <v>132.38999999999999</v>
-      </c>
-      <c r="I21" s="4">
-        <f>'[3]Hinnat uusi'!G$9</f>
-        <v>138.41</v>
-      </c>
-      <c r="J21" s="4">
-        <f>'[3]Hinnat uusi'!H$9</f>
-        <v>173.65</v>
-      </c>
-      <c r="K21" s="4">
-        <f>'[3]Hinnat uusi'!I$9</f>
-        <v>166.2</v>
-      </c>
-      <c r="L21" s="4">
-        <f>'[3]Hinnat uusi'!J$9</f>
-        <v>145.37</v>
-      </c>
-      <c r="M21" s="4">
-        <f>'[3]Hinnat uusi'!K$9</f>
-        <v>193.65</v>
-      </c>
-      <c r="N21" s="4">
-        <f>'[3]Hinnat uusi'!L$9</f>
-        <v>270</v>
-      </c>
-      <c r="O21" s="4">
-        <f>'[3]Hinnat uusi'!M$9</f>
-        <v>190</v>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="3">
+        <f>[6]Taloustilit!C$18</f>
+        <v>4531.1499999999996</v>
+      </c>
+      <c r="G26" s="3">
+        <f>[6]Taloustilit!D$18</f>
+        <v>4310.82</v>
+      </c>
+      <c r="H26" s="3">
+        <f>[6]Taloustilit!E$18</f>
+        <v>3951.85</v>
+      </c>
+      <c r="I26" s="3">
+        <f>[6]Taloustilit!F$18</f>
+        <v>3963.07</v>
+      </c>
+      <c r="J26" s="3">
+        <f>[6]Taloustilit!G$18</f>
+        <v>3920.33</v>
+      </c>
+      <c r="K26" s="3">
+        <f>[6]Taloustilit!H$18</f>
+        <v>4079.94</v>
+      </c>
+      <c r="L26" s="3">
+        <f>[6]Taloustilit!I$18</f>
+        <v>4413.5200000000004</v>
+      </c>
+      <c r="M26" s="3">
+        <f>[6]Taloustilit!J$18</f>
+        <v>4182.5</v>
+      </c>
+      <c r="N26" s="3">
+        <f>[6]Taloustilit!K$18</f>
+        <v>4066</v>
+      </c>
+      <c r="O26" s="3">
+        <f>[6]Taloustilit!L$18</f>
+        <v>4857.9327008182654</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3">
+        <f>[6]Taloustilit!C$32</f>
+        <v>5391.43</v>
+      </c>
+      <c r="G27" s="3">
+        <f>[6]Taloustilit!D$32</f>
+        <v>5199.18</v>
+      </c>
+      <c r="H27" s="3">
+        <f>[6]Taloustilit!E$32</f>
+        <v>5109.55</v>
+      </c>
+      <c r="I27" s="3">
+        <f>[6]Taloustilit!F$32</f>
+        <v>5006.3500000000004</v>
+      </c>
+      <c r="J27" s="3">
+        <f>[6]Taloustilit!G$32</f>
+        <v>4952.8900000000003</v>
+      </c>
+      <c r="K27" s="3">
+        <f>[6]Taloustilit!H$32</f>
+        <v>5054.7299999999996</v>
+      </c>
+      <c r="L27" s="3">
+        <f>[6]Taloustilit!I$32</f>
+        <v>5258.16</v>
+      </c>
+      <c r="M27" s="3">
+        <f>[6]Taloustilit!J$32</f>
+        <v>5118.92</v>
+      </c>
+      <c r="N27" s="3">
+        <f>[6]Taloustilit!K$32</f>
+        <v>5362.9699999999993</v>
+      </c>
+      <c r="O27" s="3">
+        <f>[6]Taloustilit!L$32</f>
+        <v>6149.5887748384202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4">
-        <f>'[3]Hinnat uusi'!D$8</f>
-        <v>196.55</v>
-      </c>
-      <c r="G22" s="4">
-        <f>'[3]Hinnat uusi'!E$8</f>
-        <v>174.92</v>
-      </c>
-      <c r="H22" s="4">
-        <f>'[3]Hinnat uusi'!F$8</f>
-        <v>170.52</v>
-      </c>
-      <c r="I22" s="4">
-        <f>'[3]Hinnat uusi'!G$8</f>
-        <v>164.02</v>
-      </c>
-      <c r="J22" s="4">
-        <f>'[3]Hinnat uusi'!H$8</f>
-        <v>180.64</v>
-      </c>
-      <c r="K22" s="4">
-        <f>'[3]Hinnat uusi'!I$8</f>
-        <v>167.74</v>
-      </c>
-      <c r="L22" s="4">
-        <f>'[3]Hinnat uusi'!J$8</f>
-        <v>156.74</v>
-      </c>
-      <c r="M22" s="4">
-        <f>'[3]Hinnat uusi'!K$8</f>
-        <v>166.78</v>
-      </c>
-      <c r="N22" s="4">
-        <f>'[3]Hinnat uusi'!L$8</f>
-        <v>190</v>
-      </c>
-      <c r="O22" s="4">
-        <f>'[3]Hinnat uusi'!M$8</f>
-        <v>170</v>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="3">
+        <f>[6]Taloustilit!C$37</f>
+        <v>2060.6400000000003</v>
+      </c>
+      <c r="G28" s="3">
+        <f>[6]Taloustilit!D$37</f>
+        <v>2029.79</v>
+      </c>
+      <c r="H28" s="3">
+        <f>[6]Taloustilit!E$37</f>
+        <v>1955.2800000000002</v>
+      </c>
+      <c r="I28" s="3">
+        <f>[6]Taloustilit!F$37</f>
+        <v>1907.6599999999994</v>
+      </c>
+      <c r="J28" s="3">
+        <f>[6]Taloustilit!G$37</f>
+        <v>1907.04</v>
+      </c>
+      <c r="K28" s="3">
+        <f>[6]Taloustilit!H$37</f>
+        <v>1905.15</v>
+      </c>
+      <c r="L28" s="3">
+        <f>[6]Taloustilit!I$37</f>
+        <v>1903.3099999999995</v>
+      </c>
+      <c r="M28" s="3">
+        <f>[6]Taloustilit!J$37</f>
+        <v>1893.2700000000004</v>
+      </c>
+      <c r="N28" s="3">
+        <f>[6]Taloustilit!K$37</f>
+        <v>1898.9700000000003</v>
+      </c>
+      <c r="O28" s="3">
+        <f>[6]Taloustilit!L$37</f>
+        <v>1942.6559420539083</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3">
+        <f>[6]Taloustilit!C$35</f>
+        <v>1200.3699999999999</v>
+      </c>
+      <c r="G29" s="3">
+        <f>[6]Taloustilit!D$35</f>
+        <v>1141.42</v>
+      </c>
+      <c r="H29" s="3">
+        <f>[6]Taloustilit!E$35</f>
+        <v>797.58</v>
+      </c>
+      <c r="I29" s="3">
+        <f>[6]Taloustilit!F$35</f>
+        <v>864.37</v>
+      </c>
+      <c r="J29" s="3">
+        <f>[6]Taloustilit!G$35</f>
+        <v>874.48</v>
+      </c>
+      <c r="K29" s="3">
+        <f>[6]Taloustilit!H$35</f>
+        <v>930.36</v>
+      </c>
+      <c r="L29" s="3">
+        <f>[6]Taloustilit!I$35</f>
+        <v>1058.67</v>
+      </c>
+      <c r="M29" s="3">
+        <f>[6]Taloustilit!J$35</f>
+        <v>956.86</v>
+      </c>
+      <c r="N29" s="3">
+        <f>[6]Taloustilit!K$35</f>
+        <v>602</v>
+      </c>
+      <c r="O29" s="3">
+        <f>[6]Taloustilit!L$35</f>
+        <v>650.99986803375396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!C$27*100</f>
+        <v>-1.8568481193461328</v>
+      </c>
+      <c r="G30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!D$27*100</f>
+        <v>-2.9835058214750521</v>
+      </c>
+      <c r="H30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!E$27*100</f>
+        <v>1.6251354279526176</v>
+      </c>
+      <c r="I30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!F$27*100</f>
+        <v>1.0989010989004289</v>
+      </c>
+      <c r="J30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!G$27*100</f>
+        <v>0.9490590525632836</v>
+      </c>
+      <c r="K30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!H$27*100</f>
+        <v>0.10445962233893713</v>
+      </c>
+      <c r="L30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!I$27*100</f>
+        <v>-2.3358484507946642</v>
+      </c>
+      <c r="M30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!J$27*100</f>
+        <v>2.0793950850658272</v>
+      </c>
+      <c r="N30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!K$27*100</f>
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <f>'[7]TOL 2 Volyymi-indeksi uusi'!L$27*100</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>44</v>
       </c>
-      <c r="F23">
-        <f>[4]Tuotantopanokset!C$52</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>[4]Tuotantopanokset!D$52</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>[4]Tuotantopanokset!E$52</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>[4]Tuotantopanokset!F$52</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f>[4]Tuotantopanokset!G$52</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>[4]Tuotantopanokset!H$52</f>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f>[4]Tuotantopanokset!I$52</f>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f>[4]Tuotantopanokset!J$52</f>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f>[4]Tuotantopanokset!K$52</f>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f>[4]Tuotantopanokset!L$52</f>
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!C$32*100</f>
+        <v>-1.2754788590928601</v>
+      </c>
+      <c r="G31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!D$32*100</f>
+        <v>-3.0183363246793937</v>
+      </c>
+      <c r="H31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!E$32*100</f>
+        <v>-1.2959001079916765</v>
+      </c>
+      <c r="I31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!F$32*100</f>
+        <v>1.3740227418802098</v>
+      </c>
+      <c r="J31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!G$32*100</f>
+        <v>1.5934889933462815</v>
+      </c>
+      <c r="K31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!H$32*100</f>
+        <v>2.6086088280340425</v>
+      </c>
+      <c r="L31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!I$32*100</f>
+        <v>-0.92003664839115373</v>
+      </c>
+      <c r="M31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!J$32*100</f>
+        <v>3.1849939020091256</v>
+      </c>
+      <c r="N31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!K$32*100</f>
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <f>'[7]TOL 2 Liikevaihto uusi'!L$32*100</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24">
-        <f>[4]Tuotantopanokset!C$53</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>[4]Tuotantopanokset!D$53</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>[4]Tuotantopanokset!E$53</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f>[4]Tuotantopanokset!F$53</f>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f>[4]Tuotantopanokset!G$53</f>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f>[4]Tuotantopanokset!H$53</f>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f>[4]Tuotantopanokset!I$53</f>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f>[4]Tuotantopanokset!J$53</f>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f>[4]Tuotantopanokset!K$53</f>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f>[4]Tuotantopanokset!L$53</f>
-        <v>0</v>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!C$43 /1000000</f>
+        <v>1516.709286</v>
+      </c>
+      <c r="G32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!D$43 /1000000</f>
+        <v>1398.3799349999999</v>
+      </c>
+      <c r="H32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!E$43 /1000000</f>
+        <v>1374.4601130000001</v>
+      </c>
+      <c r="I32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!F$43 /1000000</f>
+        <v>1535.5256039999999</v>
+      </c>
+      <c r="J32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!G$43 /1000000</f>
+        <v>1471.173544</v>
+      </c>
+      <c r="K32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!H$43 /1000000</f>
+        <v>1666.232908</v>
+      </c>
+      <c r="L32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!I$43 /1000000</f>
+        <v>1694.024703</v>
+      </c>
+      <c r="M32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!J$43 /1000000</f>
+        <v>1732.947351</v>
+      </c>
+      <c r="N32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!K$43 /1000000</f>
+        <v>1663.62945696</v>
+      </c>
+      <c r="O32">
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!L$43 /1000000</f>
+        <v>1713.5383406688002</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25">
-        <f>[4]Tuotantopanokset!C$54</f>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f>[4]Tuotantopanokset!D$54</f>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f>[4]Tuotantopanokset!E$54</f>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f>[4]Tuotantopanokset!F$54</f>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f>[4]Tuotantopanokset!G$54</f>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f>[4]Tuotantopanokset!H$54</f>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f>[4]Tuotantopanokset!I$54</f>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f>[4]Tuotantopanokset!J$54</f>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f>[4]Tuotantopanokset!K$54</f>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f>[4]Tuotantopanokset!L$54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26">
-        <f>[4]Tuotantopanokset!C$57</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>[4]Tuotantopanokset!D$57</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>[4]Tuotantopanokset!E$57</f>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f>[4]Tuotantopanokset!F$57</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f>[4]Tuotantopanokset!G$57</f>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>[4]Tuotantopanokset!H$57</f>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f>[4]Tuotantopanokset!I$57</f>
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f>[4]Tuotantopanokset!J$57</f>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>[4]Tuotantopanokset!K$57</f>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f>[4]Tuotantopanokset!L$57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="4">
-        <f>[5]Taloustilit!C$18</f>
-        <v>4531.1499999999996</v>
-      </c>
-      <c r="G27" s="4">
-        <f>[5]Taloustilit!D$18</f>
-        <v>4310.82</v>
-      </c>
-      <c r="H27" s="4">
-        <f>[5]Taloustilit!E$18</f>
-        <v>3951.85</v>
-      </c>
-      <c r="I27" s="4">
-        <f>[5]Taloustilit!F$18</f>
-        <v>3963.07</v>
-      </c>
-      <c r="J27" s="4">
-        <f>[5]Taloustilit!G$18</f>
-        <v>3920.33</v>
-      </c>
-      <c r="K27" s="4">
-        <f>[5]Taloustilit!H$18</f>
-        <v>4079.94</v>
-      </c>
-      <c r="L27" s="4">
-        <f>[5]Taloustilit!I$18</f>
-        <v>4413.5200000000004</v>
-      </c>
-      <c r="M27" s="4">
-        <f>[5]Taloustilit!J$18</f>
-        <v>4182.5</v>
-      </c>
-      <c r="N27" s="4">
-        <f>[5]Taloustilit!K$18</f>
-        <v>4066</v>
-      </c>
-      <c r="O27" s="4">
-        <f>[5]Taloustilit!L$18</f>
-        <v>4448.7121998990797</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="4">
-        <f>[5]Taloustilit!C$32</f>
-        <v>5391.43</v>
-      </c>
-      <c r="G28" s="4">
-        <f>[5]Taloustilit!D$32</f>
-        <v>5199.18</v>
-      </c>
-      <c r="H28" s="4">
-        <f>[5]Taloustilit!E$32</f>
-        <v>5109.55</v>
-      </c>
-      <c r="I28" s="4">
-        <f>[5]Taloustilit!F$32</f>
-        <v>5006.3500000000004</v>
-      </c>
-      <c r="J28" s="4">
-        <f>[5]Taloustilit!G$32</f>
-        <v>4952.8900000000003</v>
-      </c>
-      <c r="K28" s="4">
-        <f>[5]Taloustilit!H$32</f>
-        <v>5054.7299999999996</v>
-      </c>
-      <c r="L28" s="4">
-        <f>[5]Taloustilit!I$32</f>
-        <v>5258.16</v>
-      </c>
-      <c r="M28" s="4">
-        <f>[5]Taloustilit!J$32</f>
-        <v>5118.92</v>
-      </c>
-      <c r="N28" s="4">
-        <f>[5]Taloustilit!K$32</f>
-        <v>5362.9699999999993</v>
-      </c>
-      <c r="O28" s="4">
-        <f>[5]Taloustilit!L$32</f>
-        <v>6134.3557635274974</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="4">
-        <f>[5]Taloustilit!C$37</f>
-        <v>2060.6400000000003</v>
-      </c>
-      <c r="G29" s="4">
-        <f>[5]Taloustilit!D$37</f>
-        <v>2029.79</v>
-      </c>
-      <c r="H29" s="4">
-        <f>[5]Taloustilit!E$37</f>
-        <v>1955.2800000000002</v>
-      </c>
-      <c r="I29" s="4">
-        <f>[5]Taloustilit!F$37</f>
-        <v>1907.6599999999994</v>
-      </c>
-      <c r="J29" s="4">
-        <f>[5]Taloustilit!G$37</f>
-        <v>1907.04</v>
-      </c>
-      <c r="K29" s="4">
-        <f>[5]Taloustilit!H$37</f>
-        <v>1905.15</v>
-      </c>
-      <c r="L29" s="4">
-        <f>[5]Taloustilit!I$37</f>
-        <v>1903.3099999999995</v>
-      </c>
-      <c r="M29" s="4">
-        <f>[5]Taloustilit!J$37</f>
-        <v>1893.2700000000004</v>
-      </c>
-      <c r="N29" s="4">
-        <f>[5]Taloustilit!K$37</f>
-        <v>1898.9700000000003</v>
-      </c>
-      <c r="O29" s="4">
-        <f>[5]Taloustilit!L$37</f>
-        <v>1934.8618597325785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="4">
-        <f>[5]Taloustilit!C$35</f>
-        <v>1200.3699999999999</v>
-      </c>
-      <c r="G30" s="4">
-        <f>[5]Taloustilit!D$35</f>
-        <v>1141.42</v>
-      </c>
-      <c r="H30" s="4">
-        <f>[5]Taloustilit!E$35</f>
-        <v>797.58</v>
-      </c>
-      <c r="I30" s="4">
-        <f>[5]Taloustilit!F$35</f>
-        <v>864.37</v>
-      </c>
-      <c r="J30" s="4">
-        <f>[5]Taloustilit!G$35</f>
-        <v>874.48</v>
-      </c>
-      <c r="K30" s="4">
-        <f>[5]Taloustilit!H$35</f>
-        <v>930.36</v>
-      </c>
-      <c r="L30" s="4">
-        <f>[5]Taloustilit!I$35</f>
-        <v>1058.67</v>
-      </c>
-      <c r="M30" s="4">
-        <f>[5]Taloustilit!J$35</f>
-        <v>956.86</v>
-      </c>
-      <c r="N30" s="4">
-        <f>[5]Taloustilit!K$35</f>
-        <v>602</v>
-      </c>
-      <c r="O30" s="4">
-        <f>[5]Taloustilit!L$35</f>
-        <v>249.2182961041608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!C$27</f>
-        <v>-1.8568481193461328E-2</v>
-      </c>
-      <c r="G31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!D$27</f>
-        <v>-2.9835058214750521E-2</v>
-      </c>
-      <c r="H31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!E$27</f>
-        <v>1.6251354279526176E-2</v>
-      </c>
-      <c r="I31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!F$27</f>
-        <v>1.0989010989004289E-2</v>
-      </c>
-      <c r="J31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!G$27</f>
-        <v>9.490590525632836E-3</v>
-      </c>
-      <c r="K31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!H$27</f>
-        <v>1.0445962233893713E-3</v>
-      </c>
-      <c r="L31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!I$27</f>
-        <v>-2.3358484507946642E-2</v>
-      </c>
-      <c r="M31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!J$27</f>
-        <v>1.6766663927015424E-2</v>
-      </c>
-      <c r="N31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!K$27</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f>'[6]TOL 2 Volyymi-indeksi uusi'!L$27</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!C$32</f>
-        <v>-1.2754788590928601E-2</v>
-      </c>
-      <c r="G32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!D$32</f>
-        <v>-3.0183363246793937E-2</v>
-      </c>
-      <c r="H32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!E$32</f>
-        <v>-1.2959001079916765E-2</v>
-      </c>
-      <c r="I32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!F$32</f>
-        <v>1.3740227418802098E-2</v>
-      </c>
-      <c r="J32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!G$32</f>
-        <v>1.5934889933462815E-2</v>
-      </c>
-      <c r="K32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!H$32</f>
-        <v>2.6086088280340425E-2</v>
-      </c>
-      <c r="L32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!I$32</f>
-        <v>-9.2003664839115373E-3</v>
-      </c>
-      <c r="M32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!J$32</f>
-        <v>3.1539899005170735E-2</v>
-      </c>
-      <c r="N32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!K$32</f>
-        <v>0.03</v>
-      </c>
-      <c r="O32">
-        <f>'[6]TOL 2 Liikevaihto uusi'!L$32</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!C$43</f>
-        <v>1516709286</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!C$45/1000000</f>
+        <v>4160.28881</v>
       </c>
       <c r="G33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!D$43</f>
-        <v>1398379935</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!D$45/1000000</f>
+        <v>4278.3754300000001</v>
       </c>
       <c r="H33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!E$43</f>
-        <v>1374460113</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!E$45/1000000</f>
+        <v>4293.224397</v>
       </c>
       <c r="I33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!F$43</f>
-        <v>1535525604</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!F$45/1000000</f>
+        <v>4566.6517219999996</v>
       </c>
       <c r="J33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!G$43</f>
-        <v>1471173544</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!G$45/1000000</f>
+        <v>4607.4101049999999</v>
       </c>
       <c r="K33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!H$43</f>
-        <v>1666232908</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!H$45/1000000</f>
+        <v>4667.1065689999996</v>
       </c>
       <c r="L33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!I$43</f>
-        <v>1694024703</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!I$45/1000000</f>
+        <v>4593.6189359999998</v>
       </c>
       <c r="M33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!J$43</f>
-        <v>1732947351</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!J$45/1000000</f>
+        <v>4696.0210550000002</v>
       </c>
       <c r="N33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!K$43</f>
-        <v>1663629456.96</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!K$45/1000000</f>
+        <v>4930.8221077500002</v>
       </c>
       <c r="O33">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!L$43</f>
-        <v>6654517827.8400002</v>
+        <f>'[7]Elintarv. vienti ja tuonti uusi'!L$45/1000000</f>
+        <v>5029.4385499049995</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!C$45</f>
-        <v>4160288810</v>
+        <f>[8]FPI!C$61*100</f>
+        <v>-0.49957128988599164</v>
       </c>
       <c r="G34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!D$45</f>
-        <v>4278375430</v>
+        <f>[8]FPI!D$61*100</f>
+        <v>-2.2176959890610748</v>
       </c>
       <c r="H34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!E$45</f>
-        <v>4293224397</v>
+        <f>[8]FPI!E$61*100</f>
+        <v>-1.0247483649182043</v>
       </c>
       <c r="I34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!F$45</f>
-        <v>4566651722</v>
+        <f>[8]FPI!F$61*100</f>
+        <v>-1.2642113396372223</v>
       </c>
       <c r="J34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!G$45</f>
-        <v>4607410105</v>
+        <f>[8]FPI!G$61*100</f>
+        <v>2.1613242209916894</v>
       </c>
       <c r="K34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!H$45</f>
-        <v>4667106569</v>
+        <f>[8]FPI!H$61*100</f>
+        <v>1.2037030282249672</v>
       </c>
       <c r="L34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!I$45</f>
-        <v>4593618936</v>
+        <f>[8]FPI!I$61*100</f>
+        <v>1.2975123804306543</v>
       </c>
       <c r="M34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!J$45</f>
-        <v>4696021055</v>
+        <f>[8]FPI!J$61*100</f>
+        <v>0.26969906139033828</v>
       </c>
       <c r="N34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!K$45</f>
-        <v>4930822107.75</v>
+        <f>[8]FPI!K$61*100</f>
+        <v>10.806306306306308</v>
       </c>
       <c r="O34">
-        <f>'[6]Elintarv. vienti ja tuonti uusi'!L$45</f>
-        <v>14792466323.25</v>
+        <f>[8]FPI!L$61*100</f>
+        <v>3.5790335790335783</v>
       </c>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35">
+        <f>[8]FPI!C$65*100</f>
+        <v>0.32795905217666288</v>
+      </c>
+      <c r="G35">
+        <f>[8]FPI!D$65*100</f>
+        <v>-4.381584644248826</v>
+      </c>
+      <c r="H35">
+        <f>[8]FPI!E$65*100</f>
+        <v>-2.5636188003743232</v>
+      </c>
+      <c r="I35">
+        <f>[8]FPI!F$65*100</f>
+        <v>-0.58554267258404957</v>
+      </c>
+      <c r="J35">
+        <f>[8]FPI!G$65*100</f>
+        <v>2.1175645670211685</v>
+      </c>
+      <c r="K35">
+        <f>[8]FPI!H$65*100</f>
+        <v>1.747118018203575</v>
+      </c>
+      <c r="L35">
+        <f>[8]FPI!I$65*100</f>
+        <v>-1.424683008028893E-2</v>
+      </c>
+      <c r="M35">
+        <f>[8]FPI!J$65*100</f>
+        <v>-0.29922606191506995</v>
+      </c>
+      <c r="N35">
+        <f>[8]FPI!K$65*100</f>
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <f>[8]FPI!L$65*100</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36">
+        <f>[8]FPI!C$63*100</f>
+        <v>-1.6605685336335885</v>
+      </c>
+      <c r="G36">
+        <f>[8]FPI!D$63*100</f>
+        <v>-2.7070797325031037</v>
+      </c>
+      <c r="H36">
+        <f>[8]FPI!E$63*100</f>
+        <v>-3.3908276891286726</v>
+      </c>
+      <c r="I36">
+        <f>[8]FPI!F$63*100</f>
+        <v>-1.163015224656494</v>
+      </c>
+      <c r="J36">
+        <f>[8]FPI!G$63*100</f>
+        <v>1.588470439722256</v>
+      </c>
+      <c r="K36">
+        <f>[8]FPI!H$63*100</f>
+        <v>4.3935561176940752</v>
+      </c>
+      <c r="L36">
+        <f>[8]FPI!I$63*100</f>
+        <v>2.0334707874562374</v>
+      </c>
+      <c r="M36">
+        <f>[8]FPI!J$63*100</f>
+        <v>0.54649741681018771</v>
+      </c>
+      <c r="N36">
+        <f>[8]FPI!K$63*100</f>
+        <v>12</v>
+      </c>
+      <c r="O36">
+        <f>[8]FPI!L$63*100</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37">
+        <f>[8]FPI!C$62*100</f>
+        <v>-0.37942259852804527</v>
+      </c>
+      <c r="G37">
+        <f>[8]FPI!D$62*100</f>
+        <v>-2.248156793005085</v>
+      </c>
+      <c r="H37">
+        <f>[8]FPI!E$62*100</f>
+        <v>-0.88462034096166153</v>
+      </c>
+      <c r="I37">
+        <f>[8]FPI!F$62*100</f>
+        <v>-0.10860088410293844</v>
+      </c>
+      <c r="J37">
+        <f>[8]FPI!G$62*100</f>
+        <v>0.4073132637123722</v>
+      </c>
+      <c r="K37">
+        <f>[8]FPI!H$62*100</f>
+        <v>1.9329896907216204</v>
+      </c>
+      <c r="L37">
+        <f>[8]FPI!I$62*100</f>
+        <v>0.7241227118695015</v>
+      </c>
+      <c r="M37">
+        <f>[8]FPI!J$62*100</f>
+        <v>0.77387539269349048</v>
+      </c>
+      <c r="N37">
+        <f>[8]FPI!K$62*100</f>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="O37">
+        <f>[8]FPI!L$62*100</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35">
-        <f>[7]FPI!C$61</f>
-        <v>-4.9957128988599164E-3</v>
-      </c>
-      <c r="G35">
-        <f>[7]FPI!D$61</f>
-        <v>-2.2176959890610748E-2</v>
-      </c>
-      <c r="H35">
-        <f>[7]FPI!E$61</f>
-        <v>-1.0247483649182043E-2</v>
-      </c>
-      <c r="I35">
-        <f>[7]FPI!F$61</f>
-        <v>-1.2642113396372223E-2</v>
-      </c>
-      <c r="J35">
-        <f>[7]FPI!G$61</f>
-        <v>2.1613242209916894E-2</v>
-      </c>
-      <c r="K35">
-        <f>[7]FPI!H$61</f>
-        <v>1.2037030282249672E-2</v>
-      </c>
-      <c r="L35">
-        <f>[7]FPI!I$61</f>
-        <v>1.2975123804306543E-2</v>
-      </c>
-      <c r="M35">
-        <f>[7]FPI!J$61</f>
-        <v>2.6969906139033828E-3</v>
-      </c>
-      <c r="N35">
-        <f>[7]FPI!K$61</f>
-        <v>9.8933660933660933E-2</v>
-      </c>
-      <c r="O35">
-        <f>[7]FPI!L$61</f>
-        <v>-2.8034398034398034E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15">
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36">
-        <f>[7]FPI!C$60</f>
-        <v>1.5077511148864353E-3</v>
-      </c>
-      <c r="G36">
-        <f>[7]FPI!D$60</f>
-        <v>-1.8666553578875145E-2</v>
-      </c>
-      <c r="H36">
-        <f>[7]FPI!E$60</f>
-        <v>-1.1466271013094165E-2</v>
-      </c>
-      <c r="I36">
-        <f>[7]FPI!F$60</f>
-        <v>-9.1366120218577818E-3</v>
-      </c>
-      <c r="J36">
-        <f>[7]FPI!G$60</f>
-        <v>1.9316744610135661E-2</v>
-      </c>
-      <c r="K36">
-        <f>[7]FPI!H$60</f>
-        <v>1.2133628618627768E-2</v>
-      </c>
-      <c r="L36">
-        <f>[7]FPI!I$60</f>
-        <v>1.6599550978225519E-2</v>
-      </c>
-      <c r="M36">
-        <f>[7]FPI!J$60</f>
-        <v>5.6788703955583664E-3</v>
-      </c>
-      <c r="N36">
-        <f>[7]FPI!K$60</f>
-        <v>0.10345128779395298</v>
-      </c>
-      <c r="O36">
-        <f>[7]FPI!L$60</f>
-        <v>-9.6326987681970878E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15">
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37">
-        <f>[7]FPI!C$65</f>
-        <v>3.2795905217666288E-3</v>
-      </c>
-      <c r="G37">
-        <f>[7]FPI!D$65</f>
-        <v>-4.381584644248826E-2</v>
-      </c>
-      <c r="H37">
-        <f>[7]FPI!E$65</f>
-        <v>-2.5636188003743232E-2</v>
-      </c>
-      <c r="I37">
-        <f>[7]FPI!F$65</f>
-        <v>-5.8554267258404957E-3</v>
-      </c>
-      <c r="J37">
-        <f>[7]FPI!G$65</f>
-        <v>2.1175645670211685E-2</v>
-      </c>
-      <c r="K37">
-        <f>[7]FPI!H$65</f>
-        <v>1.747118018203575E-2</v>
-      </c>
-      <c r="L37">
-        <f>[7]FPI!I$65</f>
-        <v>-1.424683008028893E-4</v>
-      </c>
-      <c r="M37">
-        <f>[7]FPI!J$65</f>
-        <v>-2.9922606191506995E-3</v>
-      </c>
-      <c r="N37">
-        <f>[7]FPI!K$65</f>
-        <v>0.08</v>
-      </c>
-      <c r="O37">
-        <f>[7]FPI!L$65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15">
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
-      </c>
       <c r="E38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38">
-        <f>[7]FPI!C$63</f>
-        <v>-1.6605685336335885E-2</v>
-      </c>
-      <c r="G38">
-        <f>[7]FPI!D$63</f>
-        <v>-2.7070797325031037E-2</v>
-      </c>
-      <c r="H38">
-        <f>[7]FPI!E$63</f>
-        <v>-3.3908276891286726E-2</v>
-      </c>
-      <c r="I38">
-        <f>[7]FPI!F$63</f>
-        <v>-1.163015224656494E-2</v>
-      </c>
-      <c r="J38">
-        <f>[7]FPI!G$63</f>
-        <v>1.588470439722256E-2</v>
-      </c>
-      <c r="K38">
-        <f>[7]FPI!H$63</f>
-        <v>4.3935561176940752E-2</v>
-      </c>
-      <c r="L38">
-        <f>[7]FPI!I$63</f>
-        <v>2.0334707874562374E-2</v>
-      </c>
-      <c r="M38">
-        <f>[7]FPI!J$63</f>
-        <v>5.4649741681018771E-3</v>
+        <v>54</v>
       </c>
       <c r="N38">
-        <f>[7]FPI!K$63</f>
-        <v>0.12</v>
+        <v>5</v>
       </c>
       <c r="O38">
-        <f>[7]FPI!L$63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15">
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39">
-        <f>[7]FPI!C$62</f>
-        <v>-3.7942259852804527E-3</v>
-      </c>
-      <c r="G39">
-        <f>[7]FPI!D$62</f>
-        <v>-2.248156793005085E-2</v>
-      </c>
-      <c r="H39">
-        <f>[7]FPI!E$62</f>
-        <v>-8.8462034096166153E-3</v>
-      </c>
-      <c r="I39">
-        <f>[7]FPI!F$62</f>
-        <v>-1.0860088410293844E-3</v>
-      </c>
-      <c r="J39">
-        <f>[7]FPI!G$62</f>
-        <v>4.073132637123722E-3</v>
-      </c>
-      <c r="K39">
-        <f>[7]FPI!H$62</f>
-        <v>1.9329896907216204E-2</v>
-      </c>
-      <c r="L39">
-        <f>[7]FPI!I$62</f>
-        <v>7.241227118695015E-3</v>
-      </c>
-      <c r="M39">
-        <f>[7]FPI!J$62</f>
-        <v>7.7387539269349048E-3</v>
-      </c>
-      <c r="N39">
-        <f>[7]FPI!K$62</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O39">
-        <f>[7]FPI!L$62</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -3981,12 +3965,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7CF7129B372D94381CFF17C005422CB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c75c751aa94996bccee6cfbf43c82a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93f4534e-9d46-4c00-b0a9-5e02916227c2" xmlns:ns3="b9b95658-da09-4b61-bbca-41f2a449ea40" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2916c675083c2647864d75d222ea43c1" ns2:_="" ns3:_="">
     <xsd:import namespace="93f4534e-9d46-4c00-b0a9-5e02916227c2"/>
@@ -4203,14 +4181,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150C3E9E-AFB3-4075-BB1F-D6FC055B5424}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150C3E9E-AFB3-4075-BB1F-D6FC055B5424}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DE3A26-3FC9-49C9-9AF8-CE5826A594B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717B3E7C-C135-4772-926D-0B5AFD194AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93f4534e-9d46-4c00-b0a9-5e02916227c2"/>
+    <ds:schemaRef ds:uri="b9b95658-da09-4b61-bbca-41f2a449ea40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717B3E7C-C135-4772-926D-0B5AFD194AC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DE3A26-3FC9-49C9-9AF8-CE5826A594B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/ennustekuvat/Ennuste kokoomataulukko_kevät_2022.xlsx
+++ b/inst/ennustekuvat/Ennuste kokoomataulukko_kevät_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry.sharepoint.com/sites/Ennuste/Shared Documents/ME/Taulut ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{0F480267-2A86-4AFF-A052-52FF3E50F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D715B7D-93D5-4219-A727-8BBAF5228B74}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{0F480267-2A86-4AFF-A052-52FF3E50F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6CD7404-85FC-43E2-924C-EE38BD067F3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4949303D-B93D-4224-9334-DBEC70CC5E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4949303D-B93D-4224-9334-DBEC70CC5E62}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>Elintarvikkeiden hinta Suomi</t>
   </si>
   <si>
-    <t>Elintarvikkeet</t>
-  </si>
-  <si>
     <t>Elintarvikkeiden hintojen muutos</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Tuotantotarvikkeet yhteensä</t>
+  </si>
+  <si>
+    <t>Elintarvikkeet ja alkoholittomat juomat</t>
   </si>
 </sst>
 </file>
@@ -378,10 +378,10 @@
             <v>39.56</v>
           </cell>
           <cell r="L12">
-            <v>45.494</v>
+            <v>45.889600000000002</v>
           </cell>
           <cell r="M12">
-            <v>45.94894</v>
+            <v>46.348496000000004</v>
           </cell>
         </row>
       </sheetData>
@@ -432,13 +432,11 @@
       <sheetName val="Hinnat Suomi kk"/>
       <sheetName val="Hinnat Suomi"/>
       <sheetName val="Kulutus ja tuotanto Suomi"/>
-      <sheetName val="Taul2"/>
       <sheetName val="Uusi Kulutus ja tuotanto Suomi"/>
       <sheetName val="Hinnat EU"/>
       <sheetName val="Hinnat EU uusi"/>
       <sheetName val="Tuotanto EU"/>
       <sheetName val="Tuotanto EU uusi"/>
-      <sheetName val="Taul1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -469,7 +467,7 @@
             <v>1.5904698539429107E-2</v>
           </cell>
           <cell r="L15">
-            <v>0.15</v>
+            <v>0.16</v>
           </cell>
           <cell r="M15">
             <v>0.03</v>
@@ -501,7 +499,7 @@
             <v>-4.0798664770971271E-2</v>
           </cell>
           <cell r="L17">
-            <v>0.13</v>
+            <v>0.14000000000000001</v>
           </cell>
           <cell r="M17">
             <v>0.02</v>
@@ -541,11 +539,63 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="3">
+        <row r="10">
+          <cell r="C10">
+            <v>82315768.700000003</v>
+          </cell>
+          <cell r="D10">
+            <v>85768467.600000009</v>
+          </cell>
+          <cell r="E10">
+            <v>86034058.799999997</v>
+          </cell>
+          <cell r="F10">
+            <v>85393390.5</v>
+          </cell>
+          <cell r="G10">
+            <v>86477330</v>
+          </cell>
+          <cell r="H10">
+            <v>87179708.900000006</v>
+          </cell>
+          <cell r="I10">
+            <v>86525182.200000003</v>
+          </cell>
+          <cell r="J10">
+            <v>85672404.399999991</v>
+          </cell>
+          <cell r="K10">
+            <v>84815680.355999991</v>
+          </cell>
+          <cell r="L10">
+            <v>83967523.552439988</v>
+          </cell>
+        </row>
         <row r="11">
           <cell r="C11">
-            <v>94774435.699999973</v>
+            <v>94647989.089999974</v>
+          </cell>
+          <cell r="D11">
+            <v>98723643.759999976</v>
+          </cell>
+          <cell r="E11">
+            <v>99204501.029999971</v>
+          </cell>
+          <cell r="F11">
+            <v>99248995.059999987</v>
+          </cell>
+          <cell r="G11">
+            <v>99975913.859999955</v>
+          </cell>
+          <cell r="H11">
+            <v>97851483.029999986</v>
+          </cell>
+          <cell r="I11">
+            <v>97466503.429999962</v>
+          </cell>
+          <cell r="J11">
+            <v>96847043.519999981</v>
           </cell>
         </row>
         <row r="25">
@@ -582,34 +632,34 @@
         </row>
         <row r="26">
           <cell r="C26">
-            <v>186580274.99999946</v>
+            <v>183486191.34999961</v>
           </cell>
           <cell r="D26">
-            <v>188593415.3999998</v>
+            <v>187137727.31999978</v>
           </cell>
           <cell r="E26">
-            <v>182142622.59999973</v>
+            <v>188874303.28999969</v>
           </cell>
           <cell r="F26">
-            <v>178187325.1999999</v>
+            <v>182302367.80999991</v>
           </cell>
           <cell r="G26">
-            <v>178080779.9999997</v>
+            <v>172878801.74999976</v>
           </cell>
           <cell r="H26">
-            <v>166429639.5999999</v>
+            <v>164425019.63999981</v>
           </cell>
           <cell r="I26">
-            <v>155950666.89999989</v>
+            <v>159612843.5299997</v>
           </cell>
           <cell r="J26">
-            <v>160894811.69999951</v>
+            <v>156003579.61999962</v>
           </cell>
           <cell r="K26">
-            <v>160090337.64149952</v>
+            <v>155223561.72189963</v>
           </cell>
           <cell r="L26">
-            <v>159289885.95329204</v>
+            <v>154447443.91329011</v>
           </cell>
         </row>
         <row r="40">
@@ -644,44 +694,11 @@
             <v>150119809.81564999</v>
           </cell>
         </row>
-        <row r="41">
-          <cell r="C41">
-            <v>108830504.5</v>
-          </cell>
-          <cell r="D41">
-            <v>111187695.69999999</v>
-          </cell>
-          <cell r="E41">
-            <v>119531284.19999966</v>
-          </cell>
-          <cell r="F41">
-            <v>127400676.29999979</v>
-          </cell>
-          <cell r="G41">
-            <v>132285979.99999967</v>
-          </cell>
-          <cell r="H41">
-            <v>134794374.19999981</v>
-          </cell>
-          <cell r="I41">
-            <v>140812090.9999997</v>
-          </cell>
-          <cell r="J41">
-            <v>143328112.49999958</v>
-          </cell>
-          <cell r="K41">
-            <v>144761393.62499958</v>
-          </cell>
-          <cell r="L41">
-            <v>146209007.56124958</v>
-          </cell>
-        </row>
       </sheetData>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -904,10 +921,10 @@
             <v>208.51</v>
           </cell>
           <cell r="L5">
-            <v>245</v>
+            <v>260</v>
           </cell>
           <cell r="M5">
-            <v>220</v>
+            <v>230</v>
           </cell>
         </row>
         <row r="8">
@@ -968,10 +985,10 @@
             <v>193.65</v>
           </cell>
           <cell r="L9">
+            <v>240</v>
+          </cell>
+          <cell r="M9">
             <v>220</v>
-          </cell>
-          <cell r="M9">
-            <v>190</v>
           </cell>
         </row>
         <row r="12">
@@ -1000,10 +1017,10 @@
             <v>173.28</v>
           </cell>
           <cell r="L12">
+            <v>240</v>
+          </cell>
+          <cell r="M12">
             <v>210</v>
-          </cell>
-          <cell r="M12">
-            <v>175</v>
           </cell>
         </row>
       </sheetData>
@@ -1021,6 +1038,38 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="51">
+          <cell r="C51">
+            <v>-2.6646635565753085E-2</v>
+          </cell>
+          <cell r="D51">
+            <v>-2.5264012997559426E-2</v>
+          </cell>
+          <cell r="E51">
+            <v>-3.8003166930577481E-2</v>
+          </cell>
+          <cell r="F51">
+            <v>1.8452741921510807E-2</v>
+          </cell>
+          <cell r="G51">
+            <v>4.4062606328679532E-2</v>
+          </cell>
+          <cell r="H51">
+            <v>1.9390581717458222E-2</v>
+          </cell>
+          <cell r="I51">
+            <v>-5.434782608695965E-2</v>
+          </cell>
+          <cell r="J51">
+            <v>0.13091615956727187</v>
+          </cell>
+          <cell r="K51">
+            <v>0.15</v>
+          </cell>
+          <cell r="L51">
+            <v>0.02</v>
+          </cell>
+        </row>
         <row r="52">
           <cell r="C52">
             <v>-5.018248175182205E-2</v>
@@ -1115,32 +1164,6 @@
           </cell>
           <cell r="L54">
             <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>-1.6057451787296118E-2</v>
-          </cell>
-          <cell r="D57">
-            <v>-1.5827456125970141E-2</v>
-          </cell>
-          <cell r="E57">
-            <v>-2.5747854345468335E-2</v>
-          </cell>
-          <cell r="F57">
-            <v>1.5566199110503387E-2</v>
-          </cell>
-          <cell r="G57">
-            <v>3.7308404918312332E-2</v>
-          </cell>
-          <cell r="H57">
-            <v>2.0378338881214431E-2</v>
-          </cell>
-          <cell r="I57">
-            <v>-3.5486950986626353E-2</v>
-          </cell>
-          <cell r="J57">
-            <v>0.10493317934334234</v>
           </cell>
         </row>
       </sheetData>
@@ -1151,150 +1174,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Taloustilit"/>
-      <sheetName val="Taloustilit ennakkotiedot"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="18">
-          <cell r="C18">
-            <v>4531.1499999999996</v>
-          </cell>
-          <cell r="D18">
-            <v>4310.82</v>
-          </cell>
-          <cell r="E18">
-            <v>3951.85</v>
-          </cell>
-          <cell r="F18">
-            <v>3963.07</v>
-          </cell>
-          <cell r="G18">
-            <v>3920.33</v>
-          </cell>
-          <cell r="H18">
-            <v>4079.94</v>
-          </cell>
-          <cell r="I18">
-            <v>4413.5200000000004</v>
-          </cell>
-          <cell r="J18">
-            <v>4182.5</v>
-          </cell>
-          <cell r="K18">
-            <v>4066</v>
-          </cell>
-          <cell r="L18">
-            <v>4857.9327008182654</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>5391.43</v>
-          </cell>
-          <cell r="D32">
-            <v>5199.18</v>
-          </cell>
-          <cell r="E32">
-            <v>5109.55</v>
-          </cell>
-          <cell r="F32">
-            <v>5006.3500000000004</v>
-          </cell>
-          <cell r="G32">
-            <v>4952.8900000000003</v>
-          </cell>
-          <cell r="H32">
-            <v>5054.7299999999996</v>
-          </cell>
-          <cell r="I32">
-            <v>5258.16</v>
-          </cell>
-          <cell r="J32">
-            <v>5118.92</v>
-          </cell>
-          <cell r="K32">
-            <v>5362.9699999999993</v>
-          </cell>
-          <cell r="L32">
-            <v>6149.5887748384202</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>1200.3699999999999</v>
-          </cell>
-          <cell r="D35">
-            <v>1141.42</v>
-          </cell>
-          <cell r="E35">
-            <v>797.58</v>
-          </cell>
-          <cell r="F35">
-            <v>864.37</v>
-          </cell>
-          <cell r="G35">
-            <v>874.48</v>
-          </cell>
-          <cell r="H35">
-            <v>930.36</v>
-          </cell>
-          <cell r="I35">
-            <v>1058.67</v>
-          </cell>
-          <cell r="J35">
-            <v>956.86</v>
-          </cell>
-          <cell r="K35">
-            <v>602</v>
-          </cell>
-          <cell r="L35">
-            <v>650.99986803375396</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>2060.6400000000003</v>
-          </cell>
-          <cell r="D37">
-            <v>2029.79</v>
-          </cell>
-          <cell r="E37">
-            <v>1955.2800000000002</v>
-          </cell>
-          <cell r="F37">
-            <v>1907.6599999999994</v>
-          </cell>
-          <cell r="G37">
-            <v>1907.04</v>
-          </cell>
-          <cell r="H37">
-            <v>1905.15</v>
-          </cell>
-          <cell r="I37">
-            <v>1903.3099999999995</v>
-          </cell>
-          <cell r="J37">
-            <v>1893.2700000000004</v>
-          </cell>
-          <cell r="K37">
-            <v>1898.9700000000003</v>
-          </cell>
-          <cell r="L37">
-            <v>1942.6559420539083</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1333,10 +1212,10 @@
             <v>3.1849939020091256E-2</v>
           </cell>
           <cell r="K32">
-            <v>0.03</v>
+            <v>0.05</v>
           </cell>
           <cell r="L32">
-            <v>0.01</v>
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
@@ -1448,7 +1327,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1456,36 +1335,36 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="61">
-          <cell r="C61">
-            <v>-4.9957128988599164E-3</v>
-          </cell>
-          <cell r="D61">
-            <v>-2.2176959890610748E-2</v>
-          </cell>
-          <cell r="E61">
-            <v>-1.0247483649182043E-2</v>
-          </cell>
-          <cell r="F61">
-            <v>-1.2642113396372223E-2</v>
-          </cell>
-          <cell r="G61">
-            <v>2.1613242209916894E-2</v>
-          </cell>
-          <cell r="H61">
-            <v>1.2037030282249672E-2</v>
-          </cell>
-          <cell r="I61">
-            <v>1.2975123804306543E-2</v>
-          </cell>
-          <cell r="J61">
-            <v>2.6969906139033828E-3</v>
-          </cell>
-          <cell r="K61">
-            <v>0.10806306306306307</v>
-          </cell>
-          <cell r="L61">
-            <v>3.5790335790335782E-2</v>
+        <row r="60">
+          <cell r="C60">
+            <v>1.5077511148864353E-3</v>
+          </cell>
+          <cell r="D60">
+            <v>-1.8666553578875145E-2</v>
+          </cell>
+          <cell r="E60">
+            <v>-1.1466271013094165E-2</v>
+          </cell>
+          <cell r="F60">
+            <v>-9.1366120218577818E-3</v>
+          </cell>
+          <cell r="G60">
+            <v>1.9316744610135661E-2</v>
+          </cell>
+          <cell r="H60">
+            <v>1.2133628618627768E-2</v>
+          </cell>
+          <cell r="I60">
+            <v>1.6599550978225519E-2</v>
+          </cell>
+          <cell r="J60">
+            <v>5.6788703955583664E-3</v>
+          </cell>
+          <cell r="K60">
+            <v>0.1104232922732363</v>
+          </cell>
+          <cell r="L60">
+            <v>2.9848450914520347E-2</v>
           </cell>
         </row>
         <row r="62">
@@ -1514,10 +1393,10 @@
             <v>7.7387539269349048E-3</v>
           </cell>
           <cell r="K62">
-            <v>0.14000000000000001</v>
+            <v>0.1</v>
           </cell>
           <cell r="L62">
-            <v>0.03</v>
+            <v>0.04</v>
           </cell>
         </row>
         <row r="63">
@@ -1546,7 +1425,7 @@
             <v>5.4649741681018771E-3</v>
           </cell>
           <cell r="K63">
-            <v>0.12</v>
+            <v>0.14000000000000001</v>
           </cell>
           <cell r="L63">
             <v>0.04</v>
@@ -1578,10 +1457,152 @@
             <v>-2.9922606191506995E-3</v>
           </cell>
           <cell r="K65">
-            <v>0.1</v>
+            <v>0.12</v>
           </cell>
           <cell r="L65">
             <v>0.05</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Taloustilit"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="18">
+          <cell r="D18">
+            <v>4310.82</v>
+          </cell>
+          <cell r="E18">
+            <v>3951.85</v>
+          </cell>
+          <cell r="F18">
+            <v>3963.07</v>
+          </cell>
+          <cell r="G18">
+            <v>3920.33</v>
+          </cell>
+          <cell r="H18">
+            <v>4079.94</v>
+          </cell>
+          <cell r="I18">
+            <v>4413.5200000000004</v>
+          </cell>
+          <cell r="J18">
+            <v>4182.5</v>
+          </cell>
+          <cell r="K18">
+            <v>4100.72</v>
+          </cell>
+          <cell r="L18">
+            <v>4907.5877572736708</v>
+          </cell>
+          <cell r="M18">
+            <v>4958.7890784447518</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>5199.18</v>
+          </cell>
+          <cell r="E32">
+            <v>5109.55</v>
+          </cell>
+          <cell r="F32">
+            <v>5006.3500000000004</v>
+          </cell>
+          <cell r="G32">
+            <v>4952.8900000000003</v>
+          </cell>
+          <cell r="H32">
+            <v>5054.7299999999996</v>
+          </cell>
+          <cell r="I32">
+            <v>5258.16</v>
+          </cell>
+          <cell r="J32">
+            <v>5118.92</v>
+          </cell>
+          <cell r="K32">
+            <v>5255.2</v>
+          </cell>
+          <cell r="L32">
+            <v>6091.9255943273338</v>
+          </cell>
+          <cell r="M32">
+            <v>6082.7040667716592</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>1141.42</v>
+          </cell>
+          <cell r="E35">
+            <v>797.58</v>
+          </cell>
+          <cell r="F35">
+            <v>864.37</v>
+          </cell>
+          <cell r="G35">
+            <v>874.48</v>
+          </cell>
+          <cell r="H35">
+            <v>930.36</v>
+          </cell>
+          <cell r="I35">
+            <v>1058.67</v>
+          </cell>
+          <cell r="J35">
+            <v>956.86</v>
+          </cell>
+          <cell r="K35">
+            <v>745.5</v>
+          </cell>
+          <cell r="L35">
+            <v>761.52964556242569</v>
+          </cell>
+          <cell r="M35">
+            <v>825.54005464050533</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>2060.6400000000003</v>
+          </cell>
+          <cell r="D37">
+            <v>2029.79</v>
+          </cell>
+          <cell r="E37">
+            <v>1955.2800000000002</v>
+          </cell>
+          <cell r="F37">
+            <v>1907.6599999999994</v>
+          </cell>
+          <cell r="G37">
+            <v>1907.04</v>
+          </cell>
+          <cell r="H37">
+            <v>1905.15</v>
+          </cell>
+          <cell r="I37">
+            <v>1903.3099999999995</v>
+          </cell>
+          <cell r="J37">
+            <v>1893.2700000000004</v>
+          </cell>
+          <cell r="K37">
+            <v>1899.9799999999996</v>
+          </cell>
+          <cell r="L37">
+            <v>1945.8674826160882</v>
           </cell>
         </row>
       </sheetData>
@@ -1906,9 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3031DF4C-9ABC-43AF-91C0-4DF6C616CC14}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,11 +2098,11 @@
       </c>
       <c r="N3">
         <f>'[1]Maidon hinnat uusi'!L$12</f>
-        <v>45.494</v>
+        <v>45.889600000000002</v>
       </c>
       <c r="O3">
         <f>'[1]Maidon hinnat uusi'!M$12</f>
-        <v>45.94894</v>
+        <v>46.348496000000004</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2095,10 +2116,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$25/1000000</f>
@@ -2152,50 +2173,50 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="G5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$26/1000000</f>
-        <v>188.5934153999998</v>
+        <v>187.13772731999978</v>
       </c>
       <c r="H5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$26/1000000</f>
-        <v>182.14262259999973</v>
+        <v>188.87430328999969</v>
       </c>
       <c r="I5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$26/1000000</f>
-        <v>178.18732519999989</v>
+        <v>182.30236780999991</v>
       </c>
       <c r="J5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$26/1000000</f>
-        <v>178.08077999999969</v>
+        <v>172.87880174999975</v>
       </c>
       <c r="K5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$26/1000000</f>
-        <v>166.42963959999992</v>
+        <v>164.42501963999982</v>
       </c>
       <c r="L5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$26/1000000</f>
-        <v>155.95066689999987</v>
+        <v>159.61284352999971</v>
       </c>
       <c r="M5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$26/1000000</f>
-        <v>160.89481169999951</v>
+        <v>156.00357961999961</v>
       </c>
       <c r="N5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$26/1000000</f>
-        <v>160.09033764149953</v>
+        <v>155.22356172189964</v>
       </c>
       <c r="O5">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$26/1000000</f>
-        <v>159.28988595329204</v>
+        <v>154.4474439132901</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2209,10 +2230,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$40/1000000</f>
@@ -2266,50 +2287,50 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="G7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="H7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="I7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="J7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="K7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="L7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="M7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="N7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
       <c r="O7">
         <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$26/1000000</f>
-        <v>186.58027499999946</v>
+        <v>183.48619134999961</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2323,50 +2344,50 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$41/1000000</f>
-        <v>108.8305045</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$10/1000000</f>
+        <v>82.315768700000007</v>
       </c>
       <c r="G8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$41/1000000</f>
-        <v>111.18769569999999</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$10/1000000</f>
+        <v>85.768467600000008</v>
       </c>
       <c r="H8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$41/1000000</f>
-        <v>119.53128419999966</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$10/1000000</f>
+        <v>86.034058799999997</v>
       </c>
       <c r="I8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$41/1000000</f>
-        <v>127.40067629999979</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$10/1000000</f>
+        <v>85.393390499999995</v>
       </c>
       <c r="J8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$41/1000000</f>
-        <v>132.28597999999968</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$10/1000000</f>
+        <v>86.477329999999995</v>
       </c>
       <c r="K8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$41/1000000</f>
-        <v>134.79437419999982</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$10/1000000</f>
+        <v>87.179708900000008</v>
       </c>
       <c r="L8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$41/1000000</f>
-        <v>140.8120909999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$10/1000000</f>
+        <v>86.525182200000003</v>
       </c>
       <c r="M8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$41/1000000</f>
-        <v>143.32811249999958</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$10/1000000</f>
+        <v>85.672404399999991</v>
       </c>
       <c r="N8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$41/1000000</f>
-        <v>144.76139362499958</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$10/1000000</f>
+        <v>84.815680355999987</v>
       </c>
       <c r="O8">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$41/1000000</f>
-        <v>146.20900756124959</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$10/1000000</f>
+        <v>83.967523552439985</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2380,50 +2401,50 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!C$11/1000000</f>
+        <v>94.647989089999967</v>
       </c>
       <c r="G9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!D$11/1000000</f>
+        <v>98.723643759999973</v>
       </c>
       <c r="H9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!E$11/1000000</f>
+        <v>99.204501029999975</v>
       </c>
       <c r="I9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!F$11/1000000</f>
+        <v>99.248995059999984</v>
       </c>
       <c r="J9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!G$11/1000000</f>
+        <v>99.975913859999949</v>
       </c>
       <c r="K9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!H$11/1000000</f>
+        <v>97.851483029999983</v>
       </c>
       <c r="L9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!I$11/1000000</f>
+        <v>97.46650342999996</v>
       </c>
       <c r="M9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!J$11/1000000</f>
+        <v>96.847043519999986</v>
       </c>
       <c r="N9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!K$11/1000000</f>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!$C$11/1000000</f>
-        <v>94.77443569999997</v>
+        <f>'[2]Uusi Kulutus ja tuotanto Suomi'!L$11/1000000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2476,7 +2497,7 @@
       </c>
       <c r="N10">
         <f>'[2]Hinnat Suomi'!L$15*100</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O10">
         <f>'[2]Hinnat Suomi'!M$15*100</f>
@@ -2533,7 +2554,7 @@
       </c>
       <c r="N11">
         <f>'[2]Hinnat Suomi'!L$17 * 100</f>
-        <v>13</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="O11">
         <f>'[2]Hinnat Suomi'!M$17 * 100</f>
@@ -2599,7 +2620,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -2923,11 +2944,11 @@
       </c>
       <c r="N18" s="3">
         <f>'[4]Hinnat uusi'!L$5</f>
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="O18" s="3">
         <f>'[4]Hinnat uusi'!M$5</f>
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2980,11 +3001,11 @@
       </c>
       <c r="N19" s="3">
         <f>'[4]Hinnat uusi'!L$12</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="O19" s="3">
         <f>'[4]Hinnat uusi'!M$12</f>
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3037,11 +3058,11 @@
       </c>
       <c r="N20" s="3">
         <f>'[4]Hinnat uusi'!L$9</f>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="O20" s="3">
         <f>'[4]Hinnat uusi'!M$9</f>
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3274,47 +3295,47 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!C$57*100</f>
-        <v>-1.6057451787296118</v>
+        <f>'[5]Uusi Tuotantopanokset'!C$51*100</f>
+        <v>-2.6646635565753085</v>
       </c>
       <c r="G25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!D$57*100</f>
-        <v>-1.5827456125970141</v>
+        <f>'[5]Uusi Tuotantopanokset'!D$51*100</f>
+        <v>-2.5264012997559426</v>
       </c>
       <c r="H25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!E$57*100</f>
-        <v>-2.5747854345468335</v>
+        <f>'[5]Uusi Tuotantopanokset'!E$51*100</f>
+        <v>-3.8003166930577481</v>
       </c>
       <c r="I25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!F$57*100</f>
-        <v>1.5566199110503387</v>
+        <f>'[5]Uusi Tuotantopanokset'!F$51*100</f>
+        <v>1.8452741921510807</v>
       </c>
       <c r="J25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!G$57*100</f>
-        <v>3.7308404918312332</v>
+        <f>'[5]Uusi Tuotantopanokset'!G$51*100</f>
+        <v>4.4062606328679532</v>
       </c>
       <c r="K25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!H$57*100</f>
-        <v>2.0378338881214431</v>
+        <f>'[5]Uusi Tuotantopanokset'!H$51*100</f>
+        <v>1.9390581717458222</v>
       </c>
       <c r="L25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!I$57*100</f>
-        <v>-3.5486950986626353</v>
+        <f>'[5]Uusi Tuotantopanokset'!I$51*100</f>
+        <v>-5.434782608695965</v>
       </c>
       <c r="M25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!J$57*100</f>
-        <v>10.493317934334234</v>
+        <f>'[5]Uusi Tuotantopanokset'!J$51*100</f>
+        <v>13.091615956727187</v>
       </c>
       <c r="N25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!K$57*100</f>
-        <v>0</v>
+        <f>'[5]Uusi Tuotantopanokset'!K$51*100</f>
+        <v>15</v>
       </c>
       <c r="O25" s="4">
-        <f>'[5]Uusi Tuotantopanokset'!L$57*100</f>
-        <v>0</v>
+        <f>'[5]Uusi Tuotantopanokset'!L$51*100</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3328,44 +3349,44 @@
         <v>38</v>
       </c>
       <c r="F26" s="3">
-        <f>[6]Taloustilit!C$18</f>
-        <v>4531.1499999999996</v>
+        <f>[8]Taloustilit!D$18</f>
+        <v>4310.82</v>
       </c>
       <c r="G26" s="3">
-        <f>[6]Taloustilit!D$18</f>
-        <v>4310.82</v>
+        <f>[8]Taloustilit!E$18</f>
+        <v>3951.85</v>
       </c>
       <c r="H26" s="3">
-        <f>[6]Taloustilit!E$18</f>
-        <v>3951.85</v>
+        <f>[8]Taloustilit!F$18</f>
+        <v>3963.07</v>
       </c>
       <c r="I26" s="3">
-        <f>[6]Taloustilit!F$18</f>
-        <v>3963.07</v>
+        <f>[8]Taloustilit!G$18</f>
+        <v>3920.33</v>
       </c>
       <c r="J26" s="3">
-        <f>[6]Taloustilit!G$18</f>
-        <v>3920.33</v>
+        <f>[8]Taloustilit!H$18</f>
+        <v>4079.94</v>
       </c>
       <c r="K26" s="3">
-        <f>[6]Taloustilit!H$18</f>
-        <v>4079.94</v>
+        <f>[8]Taloustilit!I$18</f>
+        <v>4413.5200000000004</v>
       </c>
       <c r="L26" s="3">
-        <f>[6]Taloustilit!I$18</f>
-        <v>4413.5200000000004</v>
+        <f>[8]Taloustilit!J$18</f>
+        <v>4182.5</v>
       </c>
       <c r="M26" s="3">
-        <f>[6]Taloustilit!J$18</f>
-        <v>4182.5</v>
+        <f>[8]Taloustilit!K$18</f>
+        <v>4100.72</v>
       </c>
       <c r="N26" s="3">
-        <f>[6]Taloustilit!K$18</f>
-        <v>4066</v>
+        <f>[8]Taloustilit!L$18</f>
+        <v>4907.5877572736708</v>
       </c>
       <c r="O26" s="3">
-        <f>[6]Taloustilit!L$18</f>
-        <v>4857.9327008182654</v>
+        <f>[8]Taloustilit!M$18</f>
+        <v>4958.7890784447518</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3379,44 +3400,44 @@
         <v>39</v>
       </c>
       <c r="F27" s="3">
-        <f>[6]Taloustilit!C$32</f>
-        <v>5391.43</v>
+        <f>[8]Taloustilit!D$32</f>
+        <v>5199.18</v>
       </c>
       <c r="G27" s="3">
-        <f>[6]Taloustilit!D$32</f>
-        <v>5199.18</v>
+        <f>[8]Taloustilit!E$32</f>
+        <v>5109.55</v>
       </c>
       <c r="H27" s="3">
-        <f>[6]Taloustilit!E$32</f>
-        <v>5109.55</v>
+        <f>[8]Taloustilit!F$32</f>
+        <v>5006.3500000000004</v>
       </c>
       <c r="I27" s="3">
-        <f>[6]Taloustilit!F$32</f>
-        <v>5006.3500000000004</v>
+        <f>[8]Taloustilit!G$32</f>
+        <v>4952.8900000000003</v>
       </c>
       <c r="J27" s="3">
-        <f>[6]Taloustilit!G$32</f>
-        <v>4952.8900000000003</v>
+        <f>[8]Taloustilit!H$32</f>
+        <v>5054.7299999999996</v>
       </c>
       <c r="K27" s="3">
-        <f>[6]Taloustilit!H$32</f>
-        <v>5054.7299999999996</v>
+        <f>[8]Taloustilit!I$32</f>
+        <v>5258.16</v>
       </c>
       <c r="L27" s="3">
-        <f>[6]Taloustilit!I$32</f>
-        <v>5258.16</v>
+        <f>[8]Taloustilit!J$32</f>
+        <v>5118.92</v>
       </c>
       <c r="M27" s="3">
-        <f>[6]Taloustilit!J$32</f>
-        <v>5118.92</v>
+        <f>[8]Taloustilit!K$32</f>
+        <v>5255.2</v>
       </c>
       <c r="N27" s="3">
-        <f>[6]Taloustilit!K$32</f>
-        <v>5362.9699999999993</v>
+        <f>[8]Taloustilit!L$32</f>
+        <v>6091.9255943273338</v>
       </c>
       <c r="O27" s="3">
-        <f>[6]Taloustilit!L$32</f>
-        <v>6149.5887748384202</v>
+        <f>[8]Taloustilit!M$32</f>
+        <v>6082.7040667716592</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3430,44 +3451,44 @@
         <v>40</v>
       </c>
       <c r="F28" s="3">
-        <f>[6]Taloustilit!C$37</f>
+        <f>[8]Taloustilit!C$37</f>
         <v>2060.6400000000003</v>
       </c>
       <c r="G28" s="3">
-        <f>[6]Taloustilit!D$37</f>
+        <f>[8]Taloustilit!D$37</f>
         <v>2029.79</v>
       </c>
       <c r="H28" s="3">
-        <f>[6]Taloustilit!E$37</f>
+        <f>[8]Taloustilit!E$37</f>
         <v>1955.2800000000002</v>
       </c>
       <c r="I28" s="3">
-        <f>[6]Taloustilit!F$37</f>
+        <f>[8]Taloustilit!F$37</f>
         <v>1907.6599999999994</v>
       </c>
       <c r="J28" s="3">
-        <f>[6]Taloustilit!G$37</f>
+        <f>[8]Taloustilit!G$37</f>
         <v>1907.04</v>
       </c>
       <c r="K28" s="3">
-        <f>[6]Taloustilit!H$37</f>
+        <f>[8]Taloustilit!H$37</f>
         <v>1905.15</v>
       </c>
       <c r="L28" s="3">
-        <f>[6]Taloustilit!I$37</f>
+        <f>[8]Taloustilit!I$37</f>
         <v>1903.3099999999995</v>
       </c>
       <c r="M28" s="3">
-        <f>[6]Taloustilit!J$37</f>
+        <f>[8]Taloustilit!J$37</f>
         <v>1893.2700000000004</v>
       </c>
       <c r="N28" s="3">
-        <f>[6]Taloustilit!K$37</f>
-        <v>1898.9700000000003</v>
+        <f>[8]Taloustilit!K$37</f>
+        <v>1899.9799999999996</v>
       </c>
       <c r="O28" s="3">
-        <f>[6]Taloustilit!L$37</f>
-        <v>1942.6559420539083</v>
+        <f>[8]Taloustilit!L$37</f>
+        <v>1945.8674826160882</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3481,44 +3502,44 @@
         <v>41</v>
       </c>
       <c r="F29" s="3">
-        <f>[6]Taloustilit!C$35</f>
-        <v>1200.3699999999999</v>
+        <f>[8]Taloustilit!D$35</f>
+        <v>1141.42</v>
       </c>
       <c r="G29" s="3">
-        <f>[6]Taloustilit!D$35</f>
-        <v>1141.42</v>
+        <f>[8]Taloustilit!E$35</f>
+        <v>797.58</v>
       </c>
       <c r="H29" s="3">
-        <f>[6]Taloustilit!E$35</f>
-        <v>797.58</v>
+        <f>[8]Taloustilit!F$35</f>
+        <v>864.37</v>
       </c>
       <c r="I29" s="3">
-        <f>[6]Taloustilit!F$35</f>
-        <v>864.37</v>
+        <f>[8]Taloustilit!G$35</f>
+        <v>874.48</v>
       </c>
       <c r="J29" s="3">
-        <f>[6]Taloustilit!G$35</f>
-        <v>874.48</v>
+        <f>[8]Taloustilit!H$35</f>
+        <v>930.36</v>
       </c>
       <c r="K29" s="3">
-        <f>[6]Taloustilit!H$35</f>
-        <v>930.36</v>
+        <f>[8]Taloustilit!I$35</f>
+        <v>1058.67</v>
       </c>
       <c r="L29" s="3">
-        <f>[6]Taloustilit!I$35</f>
-        <v>1058.67</v>
+        <f>[8]Taloustilit!J$35</f>
+        <v>956.86</v>
       </c>
       <c r="M29" s="3">
-        <f>[6]Taloustilit!J$35</f>
-        <v>956.86</v>
+        <f>[8]Taloustilit!K$35</f>
+        <v>745.5</v>
       </c>
       <c r="N29" s="3">
-        <f>[6]Taloustilit!K$35</f>
-        <v>602</v>
+        <f>[8]Taloustilit!L$35</f>
+        <v>761.52964556242569</v>
       </c>
       <c r="O29" s="3">
-        <f>[6]Taloustilit!L$35</f>
-        <v>650.99986803375396</v>
+        <f>[8]Taloustilit!M$35</f>
+        <v>825.54005464050533</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3535,43 +3556,43 @@
         <v>43</v>
       </c>
       <c r="F30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!C$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!C$27*100</f>
         <v>-1.8568481193461328</v>
       </c>
       <c r="G30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!D$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!D$27*100</f>
         <v>-2.9835058214750521</v>
       </c>
       <c r="H30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!E$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!E$27*100</f>
         <v>1.6251354279526176</v>
       </c>
       <c r="I30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!F$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!F$27*100</f>
         <v>1.0989010989004289</v>
       </c>
       <c r="J30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!G$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!G$27*100</f>
         <v>0.9490590525632836</v>
       </c>
       <c r="K30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!H$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!H$27*100</f>
         <v>0.10445962233893713</v>
       </c>
       <c r="L30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!I$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!I$27*100</f>
         <v>-2.3358484507946642</v>
       </c>
       <c r="M30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!J$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!J$27*100</f>
         <v>2.0793950850658272</v>
       </c>
       <c r="N30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!K$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!K$27*100</f>
         <v>0.5</v>
       </c>
       <c r="O30">
-        <f>'[7]TOL 2 Volyymi-indeksi uusi'!L$27*100</f>
+        <f>'[6]TOL 2 Volyymi-indeksi uusi'!L$27*100</f>
         <v>0.5</v>
       </c>
     </row>
@@ -3589,44 +3610,44 @@
         <v>45</v>
       </c>
       <c r="F31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!C$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!C$32*100</f>
         <v>-1.2754788590928601</v>
       </c>
       <c r="G31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!D$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!D$32*100</f>
         <v>-3.0183363246793937</v>
       </c>
       <c r="H31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!E$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!E$32*100</f>
         <v>-1.2959001079916765</v>
       </c>
       <c r="I31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!F$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!F$32*100</f>
         <v>1.3740227418802098</v>
       </c>
       <c r="J31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!G$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!G$32*100</f>
         <v>1.5934889933462815</v>
       </c>
       <c r="K31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!H$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!H$32*100</f>
         <v>2.6086088280340425</v>
       </c>
       <c r="L31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!I$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!I$32*100</f>
         <v>-0.92003664839115373</v>
       </c>
       <c r="M31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!J$32*100</f>
+        <f>'[6]TOL 2 Liikevaihto uusi'!J$32*100</f>
         <v>3.1849939020091256</v>
       </c>
       <c r="N31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!K$32*100</f>
-        <v>3</v>
+        <f>'[6]TOL 2 Liikevaihto uusi'!K$32*100</f>
+        <v>5</v>
       </c>
       <c r="O31">
-        <f>'[7]TOL 2 Liikevaihto uusi'!L$32*100</f>
-        <v>1</v>
+        <f>'[6]TOL 2 Liikevaihto uusi'!L$32*100</f>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3640,43 +3661,43 @@
         <v>46</v>
       </c>
       <c r="F32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!C$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!C$43 /1000000</f>
         <v>1516.709286</v>
       </c>
       <c r="G32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!D$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!D$43 /1000000</f>
         <v>1398.3799349999999</v>
       </c>
       <c r="H32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!E$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!E$43 /1000000</f>
         <v>1374.4601130000001</v>
       </c>
       <c r="I32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!F$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!F$43 /1000000</f>
         <v>1535.5256039999999</v>
       </c>
       <c r="J32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!G$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!G$43 /1000000</f>
         <v>1471.173544</v>
       </c>
       <c r="K32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!H$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!H$43 /1000000</f>
         <v>1666.232908</v>
       </c>
       <c r="L32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!I$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!I$43 /1000000</f>
         <v>1694.024703</v>
       </c>
       <c r="M32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!J$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!J$43 /1000000</f>
         <v>1732.947351</v>
       </c>
       <c r="N32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!K$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!K$43 /1000000</f>
         <v>1663.62945696</v>
       </c>
       <c r="O32">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!L$43 /1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!L$43 /1000000</f>
         <v>1713.5383406688002</v>
       </c>
     </row>
@@ -3691,43 +3712,43 @@
         <v>47</v>
       </c>
       <c r="F33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!C$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!C$45/1000000</f>
         <v>4160.28881</v>
       </c>
       <c r="G33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!D$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!D$45/1000000</f>
         <v>4278.3754300000001</v>
       </c>
       <c r="H33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!E$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!E$45/1000000</f>
         <v>4293.224397</v>
       </c>
       <c r="I33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!F$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!F$45/1000000</f>
         <v>4566.6517219999996</v>
       </c>
       <c r="J33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!G$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!G$45/1000000</f>
         <v>4607.4101049999999</v>
       </c>
       <c r="K33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!H$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!H$45/1000000</f>
         <v>4667.1065689999996</v>
       </c>
       <c r="L33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!I$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!I$45/1000000</f>
         <v>4593.6189359999998</v>
       </c>
       <c r="M33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!J$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!J$45/1000000</f>
         <v>4696.0210550000002</v>
       </c>
       <c r="N33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!K$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!K$45/1000000</f>
         <v>4930.8221077500002</v>
       </c>
       <c r="O33">
-        <f>'[7]Elintarv. vienti ja tuonti uusi'!L$45/1000000</f>
+        <f>'[6]Elintarv. vienti ja tuonti uusi'!L$45/1000000</f>
         <v>5029.4385499049995</v>
       </c>
     </row>
@@ -3739,47 +3760,47 @@
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F34">
-        <f>[8]FPI!C$61*100</f>
-        <v>-0.49957128988599164</v>
+        <f>[7]FPI!C$60*100</f>
+        <v>0.15077511148864353</v>
       </c>
       <c r="G34">
-        <f>[8]FPI!D$61*100</f>
-        <v>-2.2176959890610748</v>
+        <f>[7]FPI!D$60*100</f>
+        <v>-1.8666553578875145</v>
       </c>
       <c r="H34">
-        <f>[8]FPI!E$61*100</f>
-        <v>-1.0247483649182043</v>
+        <f>[7]FPI!E$60*100</f>
+        <v>-1.1466271013094165</v>
       </c>
       <c r="I34">
-        <f>[8]FPI!F$61*100</f>
-        <v>-1.2642113396372223</v>
+        <f>[7]FPI!F$60*100</f>
+        <v>-0.91366120218577818</v>
       </c>
       <c r="J34">
-        <f>[8]FPI!G$61*100</f>
-        <v>2.1613242209916894</v>
+        <f>[7]FPI!G$60*100</f>
+        <v>1.9316744610135661</v>
       </c>
       <c r="K34">
-        <f>[8]FPI!H$61*100</f>
-        <v>1.2037030282249672</v>
+        <f>[7]FPI!H$60*100</f>
+        <v>1.2133628618627768</v>
       </c>
       <c r="L34">
-        <f>[8]FPI!I$61*100</f>
-        <v>1.2975123804306543</v>
+        <f>[7]FPI!I$60*100</f>
+        <v>1.6599550978225519</v>
       </c>
       <c r="M34">
-        <f>[8]FPI!J$61*100</f>
-        <v>0.26969906139033828</v>
+        <f>[7]FPI!J$60*100</f>
+        <v>0.56788703955583664</v>
       </c>
       <c r="N34">
-        <f>[8]FPI!K$61*100</f>
-        <v>10.806306306306308</v>
+        <f>[7]FPI!K$60*100</f>
+        <v>11.042329227323631</v>
       </c>
       <c r="O34">
-        <f>[8]FPI!L$61*100</f>
-        <v>3.5790335790335783</v>
+        <f>[7]FPI!L$60*100</f>
+        <v>2.9848450914520348</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
@@ -3787,49 +3808,49 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35">
-        <f>[8]FPI!C$65*100</f>
+        <f>[7]FPI!C$65*100</f>
         <v>0.32795905217666288</v>
       </c>
       <c r="G35">
-        <f>[8]FPI!D$65*100</f>
+        <f>[7]FPI!D$65*100</f>
         <v>-4.381584644248826</v>
       </c>
       <c r="H35">
-        <f>[8]FPI!E$65*100</f>
+        <f>[7]FPI!E$65*100</f>
         <v>-2.5636188003743232</v>
       </c>
       <c r="I35">
-        <f>[8]FPI!F$65*100</f>
+        <f>[7]FPI!F$65*100</f>
         <v>-0.58554267258404957</v>
       </c>
       <c r="J35">
-        <f>[8]FPI!G$65*100</f>
+        <f>[7]FPI!G$65*100</f>
         <v>2.1175645670211685</v>
       </c>
       <c r="K35">
-        <f>[8]FPI!H$65*100</f>
+        <f>[7]FPI!H$65*100</f>
         <v>1.747118018203575</v>
       </c>
       <c r="L35">
-        <f>[8]FPI!I$65*100</f>
+        <f>[7]FPI!I$65*100</f>
         <v>-1.424683008028893E-2</v>
       </c>
       <c r="M35">
-        <f>[8]FPI!J$65*100</f>
+        <f>[7]FPI!J$65*100</f>
         <v>-0.29922606191506995</v>
       </c>
       <c r="N35">
-        <f>[8]FPI!K$65*100</f>
-        <v>10</v>
+        <f>[7]FPI!K$65*100</f>
+        <v>12</v>
       </c>
       <c r="O35">
-        <f>[8]FPI!L$65*100</f>
+        <f>[7]FPI!L$65*100</f>
         <v>5</v>
       </c>
     </row>
@@ -3838,49 +3859,49 @@
         <v>37</v>
       </c>
       <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
         <v>50</v>
       </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
       <c r="F36">
-        <f>[8]FPI!C$63*100</f>
+        <f>[7]FPI!C$63*100</f>
         <v>-1.6605685336335885</v>
       </c>
       <c r="G36">
-        <f>[8]FPI!D$63*100</f>
+        <f>[7]FPI!D$63*100</f>
         <v>-2.7070797325031037</v>
       </c>
       <c r="H36">
-        <f>[8]FPI!E$63*100</f>
+        <f>[7]FPI!E$63*100</f>
         <v>-3.3908276891286726</v>
       </c>
       <c r="I36">
-        <f>[8]FPI!F$63*100</f>
+        <f>[7]FPI!F$63*100</f>
         <v>-1.163015224656494</v>
       </c>
       <c r="J36">
-        <f>[8]FPI!G$63*100</f>
+        <f>[7]FPI!G$63*100</f>
         <v>1.588470439722256</v>
       </c>
       <c r="K36">
-        <f>[8]FPI!H$63*100</f>
+        <f>[7]FPI!H$63*100</f>
         <v>4.3935561176940752</v>
       </c>
       <c r="L36">
-        <f>[8]FPI!I$63*100</f>
+        <f>[7]FPI!I$63*100</f>
         <v>2.0334707874562374</v>
       </c>
       <c r="M36">
-        <f>[8]FPI!J$63*100</f>
+        <f>[7]FPI!J$63*100</f>
         <v>0.54649741681018771</v>
       </c>
       <c r="N36">
-        <f>[8]FPI!K$63*100</f>
-        <v>12</v>
+        <f>[7]FPI!K$63*100</f>
+        <v>14.000000000000002</v>
       </c>
       <c r="O36">
-        <f>[8]FPI!L$63*100</f>
+        <f>[7]FPI!L$63*100</f>
         <v>4</v>
       </c>
     </row>
@@ -3889,50 +3910,50 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37">
-        <f>[8]FPI!C$62*100</f>
+        <f>[7]FPI!C$62*100</f>
         <v>-0.37942259852804527</v>
       </c>
       <c r="G37">
-        <f>[8]FPI!D$62*100</f>
+        <f>[7]FPI!D$62*100</f>
         <v>-2.248156793005085</v>
       </c>
       <c r="H37">
-        <f>[8]FPI!E$62*100</f>
+        <f>[7]FPI!E$62*100</f>
         <v>-0.88462034096166153</v>
       </c>
       <c r="I37">
-        <f>[8]FPI!F$62*100</f>
+        <f>[7]FPI!F$62*100</f>
         <v>-0.10860088410293844</v>
       </c>
       <c r="J37">
-        <f>[8]FPI!G$62*100</f>
+        <f>[7]FPI!G$62*100</f>
         <v>0.4073132637123722</v>
       </c>
       <c r="K37">
-        <f>[8]FPI!H$62*100</f>
+        <f>[7]FPI!H$62*100</f>
         <v>1.9329896907216204</v>
       </c>
       <c r="L37">
-        <f>[8]FPI!I$62*100</f>
+        <f>[7]FPI!I$62*100</f>
         <v>0.7241227118695015</v>
       </c>
       <c r="M37">
-        <f>[8]FPI!J$62*100</f>
+        <f>[7]FPI!J$62*100</f>
         <v>0.77387539269349048</v>
       </c>
       <c r="N37">
-        <f>[8]FPI!K$62*100</f>
-        <v>14.000000000000002</v>
+        <f>[7]FPI!K$62*100</f>
+        <v>10</v>
       </c>
       <c r="O37">
-        <f>[8]FPI!L$62*100</f>
-        <v>3</v>
+        <f>[7]FPI!L$62*100</f>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
@@ -3940,7 +3961,7 @@
         <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38">
         <v>5</v>
@@ -3956,12 +3977,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4182,15 +4200,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150C3E9E-AFB3-4075-BB1F-D6FC055B5424}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DE3A26-3FC9-49C9-9AF8-CE5826A594B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4215,10 +4237,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DE3A26-3FC9-49C9-9AF8-CE5826A594B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150C3E9E-AFB3-4075-BB1F-D6FC055B5424}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>